--- a/INTLINE/data/193/ABS/87310040.xlsx
+++ b/INTLINE/data/193/ABS/87310040.xlsx
@@ -12,71 +12,71 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A419850L">Data1!$J$1:$J$10,Data1!$J$11:$J$594</definedName>
-    <definedName name="A419850L_Data">Data1!$J$11:$J$594</definedName>
-    <definedName name="A419850L_Latest">Data1!$J$594</definedName>
-    <definedName name="A419853V">Data1!$P$1:$P$10,Data1!$P$11:$P$594</definedName>
-    <definedName name="A419853V_Data">Data1!$P$11:$P$594</definedName>
-    <definedName name="A419853V_Latest">Data1!$P$594</definedName>
-    <definedName name="A419856A">Data1!$V$1:$V$10,Data1!$V$11:$V$594</definedName>
-    <definedName name="A419856A_Data">Data1!$V$11:$V$594</definedName>
-    <definedName name="A419856A_Latest">Data1!$V$594</definedName>
-    <definedName name="A419939J">Data1!$B$1:$B$10,Data1!$B$11:$B$594</definedName>
-    <definedName name="A419939J_Data">Data1!$B$11:$B$594</definedName>
-    <definedName name="A419939J_Latest">Data1!$B$594</definedName>
-    <definedName name="A419942W">Data1!$K$1:$K$10,Data1!$K$11:$K$594</definedName>
-    <definedName name="A419942W_Data">Data1!$K$11:$K$594</definedName>
-    <definedName name="A419942W_Latest">Data1!$K$594</definedName>
-    <definedName name="A419945C">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$594</definedName>
-    <definedName name="A419945C_Data">Data1!$Q$11:$Q$594</definedName>
-    <definedName name="A419945C_Latest">Data1!$Q$594</definedName>
-    <definedName name="A420023F">Data1!$C$1:$C$10,Data1!$C$11:$C$594</definedName>
-    <definedName name="A420023F_Data">Data1!$C$11:$C$594</definedName>
-    <definedName name="A420023F_Latest">Data1!$C$594</definedName>
-    <definedName name="A420026L">Data1!$L$1:$L$10,Data1!$L$11:$L$594</definedName>
-    <definedName name="A420026L_Data">Data1!$L$11:$L$594</definedName>
-    <definedName name="A420026L_Latest">Data1!$L$594</definedName>
-    <definedName name="A420029V">Data1!$R$1:$R$10,Data1!$R$11:$R$594</definedName>
-    <definedName name="A420029V_Data">Data1!$R$11:$R$594</definedName>
-    <definedName name="A420029V_Latest">Data1!$R$594</definedName>
-    <definedName name="A420107R">Data1!$D$1:$D$10,Data1!$D$11:$D$594</definedName>
-    <definedName name="A420107R_Data">Data1!$D$11:$D$594</definedName>
-    <definedName name="A420107R_Latest">Data1!$D$594</definedName>
-    <definedName name="A420110C">Data1!$M$1:$M$10,Data1!$M$11:$M$594</definedName>
-    <definedName name="A420110C_Data">Data1!$M$11:$M$594</definedName>
-    <definedName name="A420110C_Latest">Data1!$M$594</definedName>
-    <definedName name="A420113K">Data1!$S$1:$S$10,Data1!$S$11:$S$594</definedName>
-    <definedName name="A420113K_Data">Data1!$S$11:$S$594</definedName>
-    <definedName name="A420113K_Latest">Data1!$S$594</definedName>
-    <definedName name="A420194X">Data1!$E$1:$E$10,Data1!$E$11:$E$594</definedName>
-    <definedName name="A420194X_Data">Data1!$E$11:$E$594</definedName>
-    <definedName name="A420194X_Latest">Data1!$E$594</definedName>
-    <definedName name="A420197F">Data1!$N$1:$N$10,Data1!$N$11:$N$594</definedName>
-    <definedName name="A420197F_Data">Data1!$N$11:$N$594</definedName>
-    <definedName name="A420197F_Latest">Data1!$N$594</definedName>
-    <definedName name="A420200J">Data1!$T$1:$T$10,Data1!$T$11:$T$594</definedName>
-    <definedName name="A420200J_Data">Data1!$T$11:$T$594</definedName>
-    <definedName name="A420200J_Latest">Data1!$T$594</definedName>
-    <definedName name="A420278J">Data1!$F$1:$F$10,Data1!$F$11:$F$594</definedName>
-    <definedName name="A420278J_Data">Data1!$F$11:$F$594</definedName>
-    <definedName name="A420278J_Latest">Data1!$F$594</definedName>
-    <definedName name="A420281W">Data1!$O$1:$O$10,Data1!$O$11:$O$594</definedName>
-    <definedName name="A420281W_Data">Data1!$O$11:$O$594</definedName>
-    <definedName name="A420281W_Latest">Data1!$O$594</definedName>
-    <definedName name="A420284C">Data1!$U$1:$U$10,Data1!$U$11:$U$594</definedName>
-    <definedName name="A420284C_Data">Data1!$U$11:$U$594</definedName>
-    <definedName name="A420284C_Latest">Data1!$U$594</definedName>
-    <definedName name="A420356C">Data1!$G$1:$G$10,Data1!$G$11:$G$594</definedName>
-    <definedName name="A420356C_Data">Data1!$G$11:$G$594</definedName>
-    <definedName name="A420356C_Latest">Data1!$G$594</definedName>
-    <definedName name="A420442X">Data1!$H$1:$H$10,Data1!$H$11:$H$594</definedName>
-    <definedName name="A420442X_Data">Data1!$H$11:$H$594</definedName>
-    <definedName name="A420442X_Latest">Data1!$H$594</definedName>
-    <definedName name="A420515A">Data1!$I$1:$I$10,Data1!$I$11:$I$594</definedName>
-    <definedName name="A420515A_Data">Data1!$I$11:$I$594</definedName>
-    <definedName name="A420515A_Latest">Data1!$I$594</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$594</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$594</definedName>
+    <definedName name="A419850L">Data1!$J$1:$J$10,Data1!$J$11:$J$596</definedName>
+    <definedName name="A419850L_Data">Data1!$J$11:$J$596</definedName>
+    <definedName name="A419850L_Latest">Data1!$J$596</definedName>
+    <definedName name="A419853V">Data1!$P$1:$P$10,Data1!$P$11:$P$596</definedName>
+    <definedName name="A419853V_Data">Data1!$P$11:$P$596</definedName>
+    <definedName name="A419853V_Latest">Data1!$P$596</definedName>
+    <definedName name="A419856A">Data1!$V$1:$V$10,Data1!$V$11:$V$596</definedName>
+    <definedName name="A419856A_Data">Data1!$V$11:$V$596</definedName>
+    <definedName name="A419856A_Latest">Data1!$V$596</definedName>
+    <definedName name="A419939J">Data1!$B$1:$B$10,Data1!$B$11:$B$596</definedName>
+    <definedName name="A419939J_Data">Data1!$B$11:$B$596</definedName>
+    <definedName name="A419939J_Latest">Data1!$B$596</definedName>
+    <definedName name="A419942W">Data1!$K$1:$K$10,Data1!$K$11:$K$596</definedName>
+    <definedName name="A419942W_Data">Data1!$K$11:$K$596</definedName>
+    <definedName name="A419942W_Latest">Data1!$K$596</definedName>
+    <definedName name="A419945C">Data1!$Q$1:$Q$10,Data1!$Q$11:$Q$596</definedName>
+    <definedName name="A419945C_Data">Data1!$Q$11:$Q$596</definedName>
+    <definedName name="A419945C_Latest">Data1!$Q$596</definedName>
+    <definedName name="A420023F">Data1!$C$1:$C$10,Data1!$C$11:$C$596</definedName>
+    <definedName name="A420023F_Data">Data1!$C$11:$C$596</definedName>
+    <definedName name="A420023F_Latest">Data1!$C$596</definedName>
+    <definedName name="A420026L">Data1!$L$1:$L$10,Data1!$L$11:$L$596</definedName>
+    <definedName name="A420026L_Data">Data1!$L$11:$L$596</definedName>
+    <definedName name="A420026L_Latest">Data1!$L$596</definedName>
+    <definedName name="A420029V">Data1!$R$1:$R$10,Data1!$R$11:$R$596</definedName>
+    <definedName name="A420029V_Data">Data1!$R$11:$R$596</definedName>
+    <definedName name="A420029V_Latest">Data1!$R$596</definedName>
+    <definedName name="A420107R">Data1!$D$1:$D$10,Data1!$D$11:$D$596</definedName>
+    <definedName name="A420107R_Data">Data1!$D$11:$D$596</definedName>
+    <definedName name="A420107R_Latest">Data1!$D$596</definedName>
+    <definedName name="A420110C">Data1!$M$1:$M$10,Data1!$M$11:$M$596</definedName>
+    <definedName name="A420110C_Data">Data1!$M$11:$M$596</definedName>
+    <definedName name="A420110C_Latest">Data1!$M$596</definedName>
+    <definedName name="A420113K">Data1!$S$1:$S$10,Data1!$S$11:$S$596</definedName>
+    <definedName name="A420113K_Data">Data1!$S$11:$S$596</definedName>
+    <definedName name="A420113K_Latest">Data1!$S$596</definedName>
+    <definedName name="A420194X">Data1!$E$1:$E$10,Data1!$E$11:$E$596</definedName>
+    <definedName name="A420194X_Data">Data1!$E$11:$E$596</definedName>
+    <definedName name="A420194X_Latest">Data1!$E$596</definedName>
+    <definedName name="A420197F">Data1!$N$1:$N$10,Data1!$N$11:$N$596</definedName>
+    <definedName name="A420197F_Data">Data1!$N$11:$N$596</definedName>
+    <definedName name="A420197F_Latest">Data1!$N$596</definedName>
+    <definedName name="A420200J">Data1!$T$1:$T$10,Data1!$T$11:$T$596</definedName>
+    <definedName name="A420200J_Data">Data1!$T$11:$T$596</definedName>
+    <definedName name="A420200J_Latest">Data1!$T$596</definedName>
+    <definedName name="A420278J">Data1!$F$1:$F$10,Data1!$F$11:$F$596</definedName>
+    <definedName name="A420278J_Data">Data1!$F$11:$F$596</definedName>
+    <definedName name="A420278J_Latest">Data1!$F$596</definedName>
+    <definedName name="A420281W">Data1!$O$1:$O$10,Data1!$O$11:$O$596</definedName>
+    <definedName name="A420281W_Data">Data1!$O$11:$O$596</definedName>
+    <definedName name="A420281W_Latest">Data1!$O$596</definedName>
+    <definedName name="A420284C">Data1!$U$1:$U$10,Data1!$U$11:$U$596</definedName>
+    <definedName name="A420284C_Data">Data1!$U$11:$U$596</definedName>
+    <definedName name="A420284C_Latest">Data1!$U$596</definedName>
+    <definedName name="A420356C">Data1!$G$1:$G$10,Data1!$G$11:$G$596</definedName>
+    <definedName name="A420356C_Data">Data1!$G$11:$G$596</definedName>
+    <definedName name="A420356C_Latest">Data1!$G$596</definedName>
+    <definedName name="A420442X">Data1!$H$1:$H$10,Data1!$H$11:$H$596</definedName>
+    <definedName name="A420442X_Data">Data1!$H$11:$H$596</definedName>
+    <definedName name="A420442X_Latest">Data1!$H$596</definedName>
+    <definedName name="A420515A">Data1!$I$1:$I$10,Data1!$I$11:$I$596</definedName>
+    <definedName name="A420515A_Data">Data1!$I$11:$I$596</definedName>
+    <definedName name="A420515A_Latest">Data1!$I$596</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$596</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$596</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -46212,6 +46212,162 @@
       </text>
     </comment>
     <comment ref="V594" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q595" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R595" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S595" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T595" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U595" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V595" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q596" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R596" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S596" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T596" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U596" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V596" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47099,10 +47255,10 @@
         <v>26846</v>
       </c>
       <c r="G12" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>18</v>
@@ -47131,10 +47287,10 @@
         <v>26846</v>
       </c>
       <c r="G13" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>18</v>
@@ -47163,10 +47319,10 @@
         <v>26846</v>
       </c>
       <c r="G14" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>18</v>
@@ -47195,10 +47351,10 @@
         <v>26846</v>
       </c>
       <c r="G15" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>18</v>
@@ -47227,10 +47383,10 @@
         <v>26846</v>
       </c>
       <c r="G16" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>18</v>
@@ -47259,10 +47415,10 @@
         <v>26846</v>
       </c>
       <c r="G17" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>18</v>
@@ -47291,10 +47447,10 @@
         <v>26846</v>
       </c>
       <c r="G18" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>18</v>
@@ -47323,10 +47479,10 @@
         <v>26846</v>
       </c>
       <c r="G19" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>18</v>
@@ -47355,10 +47511,10 @@
         <v>26846</v>
       </c>
       <c r="G20" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>18</v>
@@ -47387,10 +47543,10 @@
         <v>26846</v>
       </c>
       <c r="G21" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>18</v>
@@ -47419,10 +47575,10 @@
         <v>26846</v>
       </c>
       <c r="G22" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>18</v>
@@ -47451,10 +47607,10 @@
         <v>26846</v>
       </c>
       <c r="G23" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>18</v>
@@ -47483,10 +47639,10 @@
         <v>26846</v>
       </c>
       <c r="G24" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>18</v>
@@ -47515,10 +47671,10 @@
         <v>26846</v>
       </c>
       <c r="G25" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>18</v>
@@ -47547,10 +47703,10 @@
         <v>26846</v>
       </c>
       <c r="G26" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>18</v>
@@ -47579,10 +47735,10 @@
         <v>26846</v>
       </c>
       <c r="G27" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>18</v>
@@ -47611,10 +47767,10 @@
         <v>26846</v>
       </c>
       <c r="G28" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>18</v>
@@ -47643,10 +47799,10 @@
         <v>26846</v>
       </c>
       <c r="G29" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>18</v>
@@ -47675,10 +47831,10 @@
         <v>26846</v>
       </c>
       <c r="G30" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H30" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>18</v>
@@ -47707,10 +47863,10 @@
         <v>26846</v>
       </c>
       <c r="G31" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H31" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>18</v>
@@ -47739,10 +47895,10 @@
         <v>26846</v>
       </c>
       <c r="G32" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H32" s="10">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>18</v>
@@ -47798,7 +47954,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V594"/>
+  <dimension ref="A1:V596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -48290,67 +48446,67 @@
         <v>15</v>
       </c>
       <c r="B8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="T8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="U8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="V8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -48358,67 +48514,67 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="J9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="L9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Q9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="R9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="S9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="T9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="U9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="V9" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -66329,7 +66485,7 @@
         <v>2034827</v>
       </c>
       <c r="K329" s="8">
-        <v>752249</v>
+        <v>752248</v>
       </c>
       <c r="L329" s="8">
         <v>858199</v>
@@ -67175,7 +67331,7 @@
         <v>452751</v>
       </c>
       <c r="M344" s="8">
-        <v>345527</v>
+        <v>345528</v>
       </c>
       <c r="N344" s="8">
         <v>77247</v>
@@ -68068,7 +68224,7 @@
         <v>871584</v>
       </c>
       <c r="L360" s="8">
-        <v>1054719</v>
+        <v>1054720</v>
       </c>
       <c r="M360" s="8">
         <v>659043</v>
@@ -68289,7 +68445,7 @@
         <v>2439840</v>
       </c>
       <c r="K364" s="8">
-        <v>826212</v>
+        <v>826211</v>
       </c>
       <c r="L364" s="8">
         <v>770690</v>
@@ -68569,7 +68725,7 @@
         <v>2852463</v>
       </c>
       <c r="K369" s="8">
-        <v>771065</v>
+        <v>771066</v>
       </c>
       <c r="L369" s="8">
         <v>756912</v>
@@ -68578,7 +68734,7 @@
         <v>675443</v>
       </c>
       <c r="N369" s="8">
-        <v>129796</v>
+        <v>129797</v>
       </c>
       <c r="O369" s="8">
         <v>288260</v>
@@ -68855,7 +69011,7 @@
         <v>971181</v>
       </c>
       <c r="M374" s="8">
-        <v>661303</v>
+        <v>661302</v>
       </c>
       <c r="N374" s="8">
         <v>168942</v>
@@ -69023,7 +69179,7 @@
         <v>940702</v>
       </c>
       <c r="M377" s="8">
-        <v>772202</v>
+        <v>772203</v>
       </c>
       <c r="N377" s="8">
         <v>161964</v>
@@ -69129,7 +69285,7 @@
         <v>3502633</v>
       </c>
       <c r="K379" s="8">
-        <v>916036</v>
+        <v>916035</v>
       </c>
       <c r="L379" s="8">
         <v>787923</v>
@@ -69409,7 +69565,7 @@
         <v>3217597</v>
       </c>
       <c r="K384" s="8">
-        <v>875139</v>
+        <v>875138</v>
       </c>
       <c r="L384" s="8">
         <v>798008</v>
@@ -69468,7 +69624,7 @@
         <v>812009</v>
       </c>
       <c r="L385" s="8">
-        <v>741543</v>
+        <v>741542</v>
       </c>
       <c r="M385" s="8">
         <v>689849</v>
@@ -69580,7 +69736,7 @@
         <v>825783</v>
       </c>
       <c r="L387" s="8">
-        <v>783899</v>
+        <v>783900</v>
       </c>
       <c r="M387" s="8">
         <v>731980</v>
@@ -69869,7 +70025,7 @@
         <v>155113</v>
       </c>
       <c r="O392" s="8">
-        <v>354636</v>
+        <v>354637</v>
       </c>
       <c r="P392" s="8">
         <v>2802951</v>
@@ -69919,7 +70075,7 @@
         <v>946554</v>
       </c>
       <c r="M393" s="8">
-        <v>1003717</v>
+        <v>1003718</v>
       </c>
       <c r="N393" s="8">
         <v>179725</v>
@@ -69969,7 +70125,7 @@
         <v>3344212</v>
       </c>
       <c r="K394" s="8">
-        <v>767338</v>
+        <v>767337</v>
       </c>
       <c r="L394" s="8">
         <v>971729</v>
@@ -70084,10 +70240,10 @@
         <v>794085</v>
       </c>
       <c r="L396" s="8">
-        <v>631959</v>
+        <v>631958</v>
       </c>
       <c r="M396" s="8">
-        <v>757749</v>
+        <v>757748</v>
       </c>
       <c r="N396" s="8">
         <v>156302</v>
@@ -70311,7 +70467,7 @@
         <v>725833</v>
       </c>
       <c r="M400" s="8">
-        <v>685880</v>
+        <v>685881</v>
       </c>
       <c r="N400" s="8">
         <v>167729</v>
@@ -70476,13 +70632,13 @@
         <v>712234</v>
       </c>
       <c r="L403" s="8">
-        <v>828079</v>
+        <v>828078</v>
       </c>
       <c r="M403" s="8">
         <v>756727</v>
       </c>
       <c r="N403" s="8">
-        <v>226201</v>
+        <v>226200</v>
       </c>
       <c r="O403" s="8">
         <v>465088</v>
@@ -70532,16 +70688,16 @@
         <v>614270</v>
       </c>
       <c r="L404" s="8">
-        <v>711026</v>
+        <v>711027</v>
       </c>
       <c r="M404" s="8">
-        <v>715169</v>
+        <v>715170</v>
       </c>
       <c r="N404" s="8">
         <v>231570</v>
       </c>
       <c r="O404" s="8">
-        <v>499418</v>
+        <v>499419</v>
       </c>
       <c r="P404" s="8">
         <v>2886801</v>
@@ -70641,13 +70797,13 @@
         <v>3543798</v>
       </c>
       <c r="K406" s="8">
-        <v>813384</v>
+        <v>813383</v>
       </c>
       <c r="L406" s="8">
-        <v>901150</v>
+        <v>901149</v>
       </c>
       <c r="M406" s="8">
-        <v>865716</v>
+        <v>865715</v>
       </c>
       <c r="N406" s="8">
         <v>168518</v>
@@ -70709,7 +70865,7 @@
         <v>167393</v>
       </c>
       <c r="O407" s="8">
-        <v>569023</v>
+        <v>569022</v>
       </c>
       <c r="P407" s="8">
         <v>3330440</v>
@@ -70753,10 +70909,10 @@
         <v>3542833</v>
       </c>
       <c r="K408" s="8">
-        <v>769368</v>
+        <v>769367</v>
       </c>
       <c r="L408" s="8">
-        <v>842053</v>
+        <v>842052</v>
       </c>
       <c r="M408" s="8">
         <v>810370</v>
@@ -70765,7 +70921,7 @@
         <v>175230</v>
       </c>
       <c r="O408" s="8">
-        <v>568236</v>
+        <v>568235</v>
       </c>
       <c r="P408" s="8">
         <v>3293000</v>
@@ -70865,10 +71021,10 @@
         <v>3334190</v>
       </c>
       <c r="K410" s="8">
-        <v>809784</v>
+        <v>809783</v>
       </c>
       <c r="L410" s="8">
-        <v>776307</v>
+        <v>776306</v>
       </c>
       <c r="M410" s="8">
         <v>834982</v>
@@ -70977,19 +71133,19 @@
         <v>2859962</v>
       </c>
       <c r="K412" s="8">
-        <v>705469</v>
+        <v>705470</v>
       </c>
       <c r="L412" s="8">
-        <v>849524</v>
+        <v>849525</v>
       </c>
       <c r="M412" s="8">
-        <v>866524</v>
+        <v>866525</v>
       </c>
       <c r="N412" s="8">
         <v>173712</v>
       </c>
       <c r="O412" s="8">
-        <v>568244</v>
+        <v>568245</v>
       </c>
       <c r="P412" s="8">
         <v>3276157</v>
@@ -71033,19 +71189,19 @@
         <v>2721491</v>
       </c>
       <c r="K413" s="8">
-        <v>773068</v>
+        <v>773069</v>
       </c>
       <c r="L413" s="8">
         <v>721587</v>
       </c>
       <c r="M413" s="8">
-        <v>998673</v>
+        <v>998674</v>
       </c>
       <c r="N413" s="8">
         <v>164377</v>
       </c>
       <c r="O413" s="8">
-        <v>513031</v>
+        <v>513032</v>
       </c>
       <c r="P413" s="8">
         <v>3318730</v>
@@ -71095,7 +71251,7 @@
         <v>947674</v>
       </c>
       <c r="M414" s="8">
-        <v>900560</v>
+        <v>900561</v>
       </c>
       <c r="N414" s="8">
         <v>201047</v>
@@ -71145,10 +71301,10 @@
         <v>3345510</v>
       </c>
       <c r="K415" s="8">
-        <v>792445</v>
+        <v>792444</v>
       </c>
       <c r="L415" s="8">
-        <v>793418</v>
+        <v>793417</v>
       </c>
       <c r="M415" s="8">
         <v>909758</v>
@@ -71201,13 +71357,13 @@
         <v>3096820</v>
       </c>
       <c r="K416" s="8">
-        <v>799111</v>
+        <v>799112</v>
       </c>
       <c r="L416" s="8">
-        <v>834510</v>
+        <v>834511</v>
       </c>
       <c r="M416" s="8">
-        <v>955614</v>
+        <v>955616</v>
       </c>
       <c r="N416" s="8">
         <v>176634</v>
@@ -71263,7 +71419,7 @@
         <v>840866</v>
       </c>
       <c r="M417" s="8">
-        <v>956490</v>
+        <v>956489</v>
       </c>
       <c r="N417" s="8">
         <v>178276</v>
@@ -71313,16 +71469,16 @@
         <v>3624384</v>
       </c>
       <c r="K418" s="8">
-        <v>812398</v>
+        <v>812397</v>
       </c>
       <c r="L418" s="8">
-        <v>848946</v>
+        <v>848945</v>
       </c>
       <c r="M418" s="8">
-        <v>951551</v>
+        <v>951550</v>
       </c>
       <c r="N418" s="8">
-        <v>177946</v>
+        <v>177945</v>
       </c>
       <c r="O418" s="8">
         <v>620983</v>
@@ -71375,13 +71531,13 @@
         <v>930251</v>
       </c>
       <c r="M419" s="8">
-        <v>1023936</v>
+        <v>1023935</v>
       </c>
       <c r="N419" s="8">
         <v>179104</v>
       </c>
       <c r="O419" s="8">
-        <v>512887</v>
+        <v>512886</v>
       </c>
       <c r="P419" s="8">
         <v>3526546</v>
@@ -71425,19 +71581,19 @@
         <v>3897576</v>
       </c>
       <c r="K420" s="8">
-        <v>742734</v>
+        <v>742733</v>
       </c>
       <c r="L420" s="8">
-        <v>966474</v>
+        <v>966473</v>
       </c>
       <c r="M420" s="8">
-        <v>1031209</v>
+        <v>1031208</v>
       </c>
       <c r="N420" s="8">
         <v>185303</v>
       </c>
       <c r="O420" s="8">
-        <v>496180</v>
+        <v>496179</v>
       </c>
       <c r="P420" s="8">
         <v>3549362</v>
@@ -71487,13 +71643,13 @@
         <v>985470</v>
       </c>
       <c r="M421" s="8">
-        <v>1050389</v>
+        <v>1050390</v>
       </c>
       <c r="N421" s="8">
         <v>220443</v>
       </c>
       <c r="O421" s="8">
-        <v>591384</v>
+        <v>591385</v>
       </c>
       <c r="P421" s="8">
         <v>3810033</v>
@@ -71540,13 +71696,13 @@
         <v>621789</v>
       </c>
       <c r="L422" s="8">
-        <v>1076817</v>
+        <v>1076816</v>
       </c>
       <c r="M422" s="8">
-        <v>1280945</v>
+        <v>1280944</v>
       </c>
       <c r="N422" s="8">
-        <v>228171</v>
+        <v>228170</v>
       </c>
       <c r="O422" s="8">
         <v>516453</v>
@@ -71599,7 +71755,7 @@
         <v>902971</v>
       </c>
       <c r="M423" s="8">
-        <v>1063868</v>
+        <v>1063867</v>
       </c>
       <c r="N423" s="8">
         <v>269006</v>
@@ -71649,19 +71805,19 @@
         <v>3451450</v>
       </c>
       <c r="K424" s="8">
-        <v>782282</v>
+        <v>782284</v>
       </c>
       <c r="L424" s="8">
-        <v>1051217</v>
+        <v>1051218</v>
       </c>
       <c r="M424" s="8">
-        <v>1133651</v>
+        <v>1133653</v>
       </c>
       <c r="N424" s="8">
         <v>219568</v>
       </c>
       <c r="O424" s="8">
-        <v>651547</v>
+        <v>651548</v>
       </c>
       <c r="P424" s="8">
         <v>3971344</v>
@@ -71708,16 +71864,16 @@
         <v>852861</v>
       </c>
       <c r="L425" s="8">
-        <v>1015244</v>
+        <v>1015245</v>
       </c>
       <c r="M425" s="8">
-        <v>1109979</v>
+        <v>1109980</v>
       </c>
       <c r="N425" s="8">
         <v>205115</v>
       </c>
       <c r="O425" s="8">
-        <v>938222</v>
+        <v>938223</v>
       </c>
       <c r="P425" s="8">
         <v>4255335</v>
@@ -71817,16 +71973,16 @@
         <v>3226885</v>
       </c>
       <c r="K427" s="8">
-        <v>782838</v>
+        <v>782839</v>
       </c>
       <c r="L427" s="8">
-        <v>944152</v>
+        <v>944153</v>
       </c>
       <c r="M427" s="8">
         <v>868624</v>
       </c>
       <c r="N427" s="8">
-        <v>184093</v>
+        <v>184094</v>
       </c>
       <c r="O427" s="8">
         <v>647791</v>
@@ -71873,7 +72029,7 @@
         <v>3990958</v>
       </c>
       <c r="K428" s="8">
-        <v>757299</v>
+        <v>757298</v>
       </c>
       <c r="L428" s="8">
         <v>859270</v>
@@ -71941,7 +72097,7 @@
         <v>249884</v>
       </c>
       <c r="O429" s="8">
-        <v>659486</v>
+        <v>659485</v>
       </c>
       <c r="P429" s="8">
         <v>3925108</v>
@@ -71985,10 +72141,10 @@
         <v>3842286</v>
       </c>
       <c r="K430" s="8">
-        <v>846425</v>
+        <v>846424</v>
       </c>
       <c r="L430" s="8">
-        <v>1043429</v>
+        <v>1043428</v>
       </c>
       <c r="M430" s="8">
         <v>947571</v>
@@ -72041,19 +72197,19 @@
         <v>4147355</v>
       </c>
       <c r="K431" s="8">
-        <v>786823</v>
+        <v>786822</v>
       </c>
       <c r="L431" s="8">
-        <v>1016298</v>
+        <v>1016297</v>
       </c>
       <c r="M431" s="8">
-        <v>893389</v>
+        <v>893388</v>
       </c>
       <c r="N431" s="8">
         <v>256328</v>
       </c>
       <c r="O431" s="8">
-        <v>593567</v>
+        <v>593566</v>
       </c>
       <c r="P431" s="8">
         <v>3710150</v>
@@ -72100,16 +72256,16 @@
         <v>754891</v>
       </c>
       <c r="L432" s="8">
-        <v>1034741</v>
+        <v>1034742</v>
       </c>
       <c r="M432" s="8">
-        <v>880880</v>
+        <v>880881</v>
       </c>
       <c r="N432" s="8">
         <v>220900</v>
       </c>
       <c r="O432" s="8">
-        <v>587387</v>
+        <v>587388</v>
       </c>
       <c r="P432" s="8">
         <v>3672149</v>
@@ -72209,19 +72365,19 @@
         <v>4060636</v>
       </c>
       <c r="K434" s="8">
-        <v>708515</v>
+        <v>708514</v>
       </c>
       <c r="L434" s="8">
-        <v>929273</v>
+        <v>929272</v>
       </c>
       <c r="M434" s="8">
-        <v>1066638</v>
+        <v>1066636</v>
       </c>
       <c r="N434" s="8">
         <v>197915</v>
       </c>
       <c r="O434" s="8">
-        <v>502482</v>
+        <v>502481</v>
       </c>
       <c r="P434" s="8">
         <v>3629596</v>
@@ -72265,19 +72421,19 @@
         <v>3013543</v>
       </c>
       <c r="K435" s="8">
-        <v>608236</v>
+        <v>608238</v>
       </c>
       <c r="L435" s="8">
-        <v>884013</v>
+        <v>884017</v>
       </c>
       <c r="M435" s="8">
-        <v>767743</v>
+        <v>767746</v>
       </c>
       <c r="N435" s="8">
-        <v>200495</v>
+        <v>200496</v>
       </c>
       <c r="O435" s="8">
-        <v>415573</v>
+        <v>415575</v>
       </c>
       <c r="P435" s="8">
         <v>3053728</v>
@@ -72321,16 +72477,16 @@
         <v>2858693</v>
       </c>
       <c r="K436" s="8">
-        <v>655484</v>
+        <v>655485</v>
       </c>
       <c r="L436" s="8">
-        <v>834467</v>
+        <v>834468</v>
       </c>
       <c r="M436" s="8">
         <v>530778</v>
       </c>
       <c r="N436" s="8">
-        <v>204967</v>
+        <v>204968</v>
       </c>
       <c r="O436" s="8">
         <v>393852</v>
@@ -72377,19 +72533,19 @@
         <v>2126377</v>
       </c>
       <c r="K437" s="8">
-        <v>561367</v>
+        <v>561369</v>
       </c>
       <c r="L437" s="8">
-        <v>890170</v>
+        <v>890173</v>
       </c>
       <c r="M437" s="8">
-        <v>598712</v>
+        <v>598714</v>
       </c>
       <c r="N437" s="8">
-        <v>213612</v>
+        <v>213613</v>
       </c>
       <c r="O437" s="8">
-        <v>419919</v>
+        <v>419921</v>
       </c>
       <c r="P437" s="8">
         <v>2804897</v>
@@ -72445,7 +72601,7 @@
         <v>223536</v>
       </c>
       <c r="O438" s="8">
-        <v>460204</v>
+        <v>460205</v>
       </c>
       <c r="P438" s="8">
         <v>3091353</v>
@@ -72489,7 +72645,7 @@
         <v>3075074</v>
       </c>
       <c r="K439" s="8">
-        <v>565365</v>
+        <v>565364</v>
       </c>
       <c r="L439" s="8">
         <v>1029833</v>
@@ -72551,7 +72707,7 @@
         <v>863395</v>
       </c>
       <c r="M440" s="8">
-        <v>687646</v>
+        <v>687645</v>
       </c>
       <c r="N440" s="8">
         <v>214770</v>
@@ -72657,19 +72813,19 @@
         <v>3317889</v>
       </c>
       <c r="K442" s="8">
-        <v>647297</v>
+        <v>647296</v>
       </c>
       <c r="L442" s="8">
-        <v>1080873</v>
+        <v>1080870</v>
       </c>
       <c r="M442" s="8">
-        <v>636479</v>
+        <v>636478</v>
       </c>
       <c r="N442" s="8">
-        <v>220508</v>
+        <v>220507</v>
       </c>
       <c r="O442" s="8">
-        <v>503412</v>
+        <v>503410</v>
       </c>
       <c r="P442" s="8">
         <v>3246374</v>
@@ -72713,19 +72869,19 @@
         <v>3991568</v>
       </c>
       <c r="K443" s="8">
-        <v>713914</v>
+        <v>713913</v>
       </c>
       <c r="L443" s="8">
-        <v>1085499</v>
+        <v>1085497</v>
       </c>
       <c r="M443" s="8">
-        <v>740593</v>
+        <v>740592</v>
       </c>
       <c r="N443" s="8">
         <v>212882</v>
       </c>
       <c r="O443" s="8">
-        <v>512434</v>
+        <v>512432</v>
       </c>
       <c r="P443" s="8">
         <v>3473767</v>
@@ -72781,7 +72937,7 @@
         <v>229881</v>
       </c>
       <c r="O444" s="8">
-        <v>509119</v>
+        <v>509120</v>
       </c>
       <c r="P444" s="8">
         <v>3636748</v>
@@ -72825,7 +72981,7 @@
         <v>4097708</v>
       </c>
       <c r="K445" s="8">
-        <v>838025</v>
+        <v>838024</v>
       </c>
       <c r="L445" s="8">
         <v>1140240</v>
@@ -72881,19 +73037,19 @@
         <v>4047206</v>
       </c>
       <c r="K446" s="8">
-        <v>753448</v>
+        <v>753447</v>
       </c>
       <c r="L446" s="8">
-        <v>1207946</v>
+        <v>1207944</v>
       </c>
       <c r="M446" s="8">
-        <v>790119</v>
+        <v>790117</v>
       </c>
       <c r="N446" s="8">
         <v>214244</v>
       </c>
       <c r="O446" s="8">
-        <v>580428</v>
+        <v>580427</v>
       </c>
       <c r="P446" s="8">
         <v>3790775</v>
@@ -72937,19 +73093,19 @@
         <v>4118695</v>
       </c>
       <c r="K447" s="8">
-        <v>923464</v>
+        <v>923468</v>
       </c>
       <c r="L447" s="8">
-        <v>1243236</v>
+        <v>1243241</v>
       </c>
       <c r="M447" s="8">
-        <v>859354</v>
+        <v>859358</v>
       </c>
       <c r="N447" s="8">
-        <v>227745</v>
+        <v>227746</v>
       </c>
       <c r="O447" s="8">
-        <v>564876</v>
+        <v>564878</v>
       </c>
       <c r="P447" s="8">
         <v>4025084</v>
@@ -72993,19 +73149,19 @@
         <v>3884612</v>
       </c>
       <c r="K448" s="8">
-        <v>897264</v>
+        <v>897267</v>
       </c>
       <c r="L448" s="8">
-        <v>1303090</v>
+        <v>1303093</v>
       </c>
       <c r="M448" s="8">
-        <v>869146</v>
+        <v>869148</v>
       </c>
       <c r="N448" s="8">
-        <v>227210</v>
+        <v>227211</v>
       </c>
       <c r="O448" s="8">
-        <v>606979</v>
+        <v>606980</v>
       </c>
       <c r="P448" s="8">
         <v>4132923</v>
@@ -73049,19 +73205,19 @@
         <v>3114779</v>
       </c>
       <c r="K449" s="8">
-        <v>925741</v>
+        <v>925746</v>
       </c>
       <c r="L449" s="8">
-        <v>1249253</v>
+        <v>1249259</v>
       </c>
       <c r="M449" s="8">
-        <v>864827</v>
+        <v>864831</v>
       </c>
       <c r="N449" s="8">
-        <v>245190</v>
+        <v>245192</v>
       </c>
       <c r="O449" s="8">
-        <v>659306</v>
+        <v>659309</v>
       </c>
       <c r="P449" s="8">
         <v>4155710</v>
@@ -73105,13 +73261,13 @@
         <v>3880734</v>
       </c>
       <c r="K450" s="8">
-        <v>940658</v>
+        <v>940659</v>
       </c>
       <c r="L450" s="8">
-        <v>1248646</v>
+        <v>1248647</v>
       </c>
       <c r="M450" s="8">
-        <v>913359</v>
+        <v>913360</v>
       </c>
       <c r="N450" s="8">
         <v>211962</v>
@@ -73161,16 +73317,16 @@
         <v>4900780</v>
       </c>
       <c r="K451" s="8">
-        <v>988600</v>
+        <v>988601</v>
       </c>
       <c r="L451" s="8">
         <v>1374261</v>
       </c>
       <c r="M451" s="8">
-        <v>902118</v>
+        <v>902119</v>
       </c>
       <c r="N451" s="8">
-        <v>270500</v>
+        <v>270501</v>
       </c>
       <c r="O451" s="8">
         <v>734994</v>
@@ -73217,10 +73373,10 @@
         <v>4176627</v>
       </c>
       <c r="K452" s="8">
-        <v>945615</v>
+        <v>945616</v>
       </c>
       <c r="L452" s="8">
-        <v>1392552</v>
+        <v>1392553</v>
       </c>
       <c r="M452" s="8">
         <v>942829</v>
@@ -73273,19 +73429,19 @@
         <v>4296217</v>
       </c>
       <c r="K453" s="8">
-        <v>992248</v>
+        <v>992244</v>
       </c>
       <c r="L453" s="8">
-        <v>1463878</v>
+        <v>1463874</v>
       </c>
       <c r="M453" s="8">
-        <v>867208</v>
+        <v>867205</v>
       </c>
       <c r="N453" s="8">
-        <v>257280</v>
+        <v>257279</v>
       </c>
       <c r="O453" s="8">
-        <v>562042</v>
+        <v>562041</v>
       </c>
       <c r="P453" s="8">
         <v>4332308</v>
@@ -73329,19 +73485,19 @@
         <v>4442054</v>
       </c>
       <c r="K454" s="8">
-        <v>902307</v>
+        <v>902306</v>
       </c>
       <c r="L454" s="8">
-        <v>1423522</v>
+        <v>1423518</v>
       </c>
       <c r="M454" s="8">
-        <v>882936</v>
+        <v>882935</v>
       </c>
       <c r="N454" s="8">
         <v>232637</v>
       </c>
       <c r="O454" s="8">
-        <v>576139</v>
+        <v>576137</v>
       </c>
       <c r="P454" s="8">
         <v>4236424</v>
@@ -73385,19 +73541,19 @@
         <v>4695662</v>
       </c>
       <c r="K455" s="8">
-        <v>1041759</v>
+        <v>1041754</v>
       </c>
       <c r="L455" s="8">
-        <v>1558832</v>
+        <v>1558823</v>
       </c>
       <c r="M455" s="8">
-        <v>800638</v>
+        <v>800634</v>
       </c>
       <c r="N455" s="8">
-        <v>247332</v>
+        <v>247330</v>
       </c>
       <c r="O455" s="8">
-        <v>516935</v>
+        <v>516932</v>
       </c>
       <c r="P455" s="8">
         <v>4382519</v>
@@ -73441,13 +73597,13 @@
         <v>4276101</v>
       </c>
       <c r="K456" s="8">
-        <v>826655</v>
+        <v>826654</v>
       </c>
       <c r="L456" s="8">
-        <v>1435212</v>
+        <v>1435211</v>
       </c>
       <c r="M456" s="8">
-        <v>777265</v>
+        <v>777264</v>
       </c>
       <c r="N456" s="8">
         <v>302605</v>
@@ -73497,13 +73653,13 @@
         <v>4294178</v>
       </c>
       <c r="K457" s="8">
-        <v>858389</v>
+        <v>858388</v>
       </c>
       <c r="L457" s="8">
-        <v>1385530</v>
+        <v>1385528</v>
       </c>
       <c r="M457" s="8">
-        <v>740917</v>
+        <v>740916</v>
       </c>
       <c r="N457" s="8">
         <v>223984</v>
@@ -73553,10 +73709,10 @@
         <v>4605417</v>
       </c>
       <c r="K458" s="8">
-        <v>1024596</v>
+        <v>1024595</v>
       </c>
       <c r="L458" s="8">
-        <v>1462855</v>
+        <v>1462853</v>
       </c>
       <c r="M458" s="8">
         <v>779755</v>
@@ -73612,16 +73768,16 @@
         <v>943319</v>
       </c>
       <c r="L459" s="8">
-        <v>1440305</v>
+        <v>1440307</v>
       </c>
       <c r="M459" s="8">
-        <v>731134</v>
+        <v>731135</v>
       </c>
       <c r="N459" s="8">
-        <v>214768</v>
+        <v>214769</v>
       </c>
       <c r="O459" s="8">
-        <v>601964</v>
+        <v>601965</v>
       </c>
       <c r="P459" s="8">
         <v>4133451</v>
@@ -73665,19 +73821,19 @@
         <v>4126620</v>
       </c>
       <c r="K460" s="8">
-        <v>1031008</v>
+        <v>1031016</v>
       </c>
       <c r="L460" s="8">
-        <v>1438573</v>
+        <v>1438584</v>
       </c>
       <c r="M460" s="8">
-        <v>705409</v>
+        <v>705415</v>
       </c>
       <c r="N460" s="8">
-        <v>227229</v>
+        <v>227231</v>
       </c>
       <c r="O460" s="8">
-        <v>567827</v>
+        <v>567831</v>
       </c>
       <c r="P460" s="8">
         <v>4232915</v>
@@ -73721,19 +73877,19 @@
         <v>2936953</v>
       </c>
       <c r="K461" s="8">
-        <v>861658</v>
+        <v>861664</v>
       </c>
       <c r="L461" s="8">
-        <v>1504884</v>
+        <v>1504893</v>
       </c>
       <c r="M461" s="8">
-        <v>725278</v>
+        <v>725282</v>
       </c>
       <c r="N461" s="8">
-        <v>179721</v>
+        <v>179722</v>
       </c>
       <c r="O461" s="8">
-        <v>532196</v>
+        <v>532199</v>
       </c>
       <c r="P461" s="8">
         <v>4001255</v>
@@ -73777,19 +73933,19 @@
         <v>3519853</v>
       </c>
       <c r="K462" s="8">
-        <v>1027015</v>
+        <v>1027018</v>
       </c>
       <c r="L462" s="8">
-        <v>1133122</v>
+        <v>1133126</v>
       </c>
       <c r="M462" s="8">
-        <v>646583</v>
+        <v>646585</v>
       </c>
       <c r="N462" s="8">
-        <v>267791</v>
+        <v>267792</v>
       </c>
       <c r="O462" s="8">
-        <v>527967</v>
+        <v>527969</v>
       </c>
       <c r="P462" s="8">
         <v>3796814</v>
@@ -73833,7 +73989,7 @@
         <v>4374122</v>
       </c>
       <c r="K463" s="8">
-        <v>980016</v>
+        <v>980015</v>
       </c>
       <c r="L463" s="8">
         <v>1482860</v>
@@ -73842,7 +73998,7 @@
         <v>657423</v>
       </c>
       <c r="N463" s="8">
-        <v>218533</v>
+        <v>218532</v>
       </c>
       <c r="O463" s="8">
         <v>544804</v>
@@ -73889,19 +74045,19 @@
         <v>3806170</v>
       </c>
       <c r="K464" s="8">
-        <v>1005971</v>
+        <v>1005976</v>
       </c>
       <c r="L464" s="8">
-        <v>1411646</v>
+        <v>1411651</v>
       </c>
       <c r="M464" s="8">
-        <v>709423</v>
+        <v>709427</v>
       </c>
       <c r="N464" s="8">
-        <v>244446</v>
+        <v>244447</v>
       </c>
       <c r="O464" s="8">
-        <v>500831</v>
+        <v>500833</v>
       </c>
       <c r="P464" s="8">
         <v>4062295</v>
@@ -73945,19 +74101,19 @@
         <v>3887697</v>
       </c>
       <c r="K465" s="8">
-        <v>809638</v>
+        <v>809626</v>
       </c>
       <c r="L465" s="8">
-        <v>1266852</v>
+        <v>1266839</v>
       </c>
       <c r="M465" s="8">
-        <v>741424</v>
+        <v>741416</v>
       </c>
       <c r="N465" s="8">
-        <v>217133</v>
+        <v>217131</v>
       </c>
       <c r="O465" s="8">
-        <v>531947</v>
+        <v>531943</v>
       </c>
       <c r="P465" s="8">
         <v>3795184</v>
@@ -74001,19 +74157,19 @@
         <v>3900664</v>
       </c>
       <c r="K466" s="8">
-        <v>835206</v>
+        <v>835203</v>
       </c>
       <c r="L466" s="8">
-        <v>1349283</v>
+        <v>1349276</v>
       </c>
       <c r="M466" s="8">
-        <v>672159</v>
+        <v>672157</v>
       </c>
       <c r="N466" s="8">
-        <v>239522</v>
+        <v>239521</v>
       </c>
       <c r="O466" s="8">
-        <v>499929</v>
+        <v>499926</v>
       </c>
       <c r="P466" s="8">
         <v>3841595</v>
@@ -74057,19 +74213,19 @@
         <v>3944263</v>
       </c>
       <c r="K467" s="8">
-        <v>950394</v>
+        <v>950386</v>
       </c>
       <c r="L467" s="8">
-        <v>1255625</v>
+        <v>1255613</v>
       </c>
       <c r="M467" s="8">
-        <v>613164</v>
+        <v>613159</v>
       </c>
       <c r="N467" s="8">
-        <v>198917</v>
+        <v>198915</v>
       </c>
       <c r="O467" s="8">
-        <v>480683</v>
+        <v>480678</v>
       </c>
       <c r="P467" s="8">
         <v>3742966</v>
@@ -74169,19 +74325,19 @@
         <v>3987601</v>
       </c>
       <c r="K469" s="8">
-        <v>835966</v>
+        <v>835964</v>
       </c>
       <c r="L469" s="8">
-        <v>1262276</v>
+        <v>1262273</v>
       </c>
       <c r="M469" s="8">
-        <v>631713</v>
+        <v>631711</v>
       </c>
       <c r="N469" s="8">
         <v>193970</v>
       </c>
       <c r="O469" s="8">
-        <v>509733</v>
+        <v>509732</v>
       </c>
       <c r="P469" s="8">
         <v>3647319</v>
@@ -74225,19 +74381,19 @@
         <v>3683734</v>
       </c>
       <c r="K470" s="8">
-        <v>831116</v>
+        <v>831114</v>
       </c>
       <c r="L470" s="8">
-        <v>1104550</v>
+        <v>1104549</v>
       </c>
       <c r="M470" s="8">
-        <v>590519</v>
+        <v>590518</v>
       </c>
       <c r="N470" s="8">
         <v>217381</v>
       </c>
       <c r="O470" s="8">
-        <v>523437</v>
+        <v>523436</v>
       </c>
       <c r="P470" s="8">
         <v>3543162</v>
@@ -74284,7 +74440,7 @@
         <v>919283</v>
       </c>
       <c r="L471" s="8">
-        <v>1163010</v>
+        <v>1163011</v>
       </c>
       <c r="M471" s="8">
         <v>614722</v>
@@ -74293,7 +74449,7 @@
         <v>184038</v>
       </c>
       <c r="O471" s="8">
-        <v>473053</v>
+        <v>473054</v>
       </c>
       <c r="P471" s="8">
         <v>3478986</v>
@@ -74337,19 +74493,19 @@
         <v>3154749</v>
       </c>
       <c r="K472" s="8">
-        <v>732146</v>
+        <v>732156</v>
       </c>
       <c r="L472" s="8">
-        <v>1133546</v>
+        <v>1133563</v>
       </c>
       <c r="M472" s="8">
-        <v>717519</v>
+        <v>717530</v>
       </c>
       <c r="N472" s="8">
-        <v>154965</v>
+        <v>154967</v>
       </c>
       <c r="O472" s="8">
-        <v>461445</v>
+        <v>461452</v>
       </c>
       <c r="P472" s="8">
         <v>3395420</v>
@@ -74393,19 +74549,19 @@
         <v>2666927</v>
       </c>
       <c r="K473" s="8">
-        <v>887867</v>
+        <v>887892</v>
       </c>
       <c r="L473" s="8">
-        <v>1139556</v>
+        <v>1139589</v>
       </c>
       <c r="M473" s="8">
-        <v>606691</v>
+        <v>606709</v>
       </c>
       <c r="N473" s="8">
-        <v>172929</v>
+        <v>172934</v>
       </c>
       <c r="O473" s="8">
-        <v>499099</v>
+        <v>499114</v>
       </c>
       <c r="P473" s="8">
         <v>3479228</v>
@@ -74449,19 +74605,19 @@
         <v>3558041</v>
       </c>
       <c r="K474" s="8">
-        <v>801475</v>
+        <v>801470</v>
       </c>
       <c r="L474" s="8">
-        <v>1252775</v>
+        <v>1252771</v>
       </c>
       <c r="M474" s="8">
-        <v>715289</v>
+        <v>715286</v>
       </c>
       <c r="N474" s="8">
-        <v>182402</v>
+        <v>182401</v>
       </c>
       <c r="O474" s="8">
-        <v>519338</v>
+        <v>519337</v>
       </c>
       <c r="P474" s="8">
         <v>3634115</v>
@@ -74505,19 +74661,19 @@
         <v>3679483</v>
       </c>
       <c r="K475" s="8">
-        <v>915656</v>
+        <v>915663</v>
       </c>
       <c r="L475" s="8">
-        <v>1104507</v>
+        <v>1104515</v>
       </c>
       <c r="M475" s="8">
-        <v>602626</v>
+        <v>602631</v>
       </c>
       <c r="N475" s="8">
-        <v>190667</v>
+        <v>190668</v>
       </c>
       <c r="O475" s="8">
-        <v>575872</v>
+        <v>575875</v>
       </c>
       <c r="P475" s="8">
         <v>3537102</v>
@@ -74561,19 +74717,19 @@
         <v>3035047</v>
       </c>
       <c r="K476" s="8">
-        <v>881740</v>
+        <v>881746</v>
       </c>
       <c r="L476" s="8">
-        <v>1217095</v>
+        <v>1217104</v>
       </c>
       <c r="M476" s="8">
-        <v>682697</v>
+        <v>682702</v>
       </c>
       <c r="N476" s="8">
-        <v>136896</v>
+        <v>136897</v>
       </c>
       <c r="O476" s="8">
-        <v>295519</v>
+        <v>295521</v>
       </c>
       <c r="P476" s="8">
         <v>3405708</v>
@@ -74617,19 +74773,19 @@
         <v>4453972</v>
       </c>
       <c r="K477" s="8">
-        <v>1143811</v>
+        <v>1143794</v>
       </c>
       <c r="L477" s="8">
-        <v>1465410</v>
+        <v>1465391</v>
       </c>
       <c r="M477" s="8">
-        <v>677473</v>
+        <v>677464</v>
       </c>
       <c r="N477" s="8">
-        <v>160681</v>
+        <v>160678</v>
       </c>
       <c r="O477" s="8">
-        <v>412964</v>
+        <v>412959</v>
       </c>
       <c r="P477" s="8">
         <v>4174034</v>
@@ -74673,10 +74829,10 @@
         <v>4407579</v>
       </c>
       <c r="K478" s="8">
-        <v>1069176</v>
+        <v>1069178</v>
       </c>
       <c r="L478" s="8">
-        <v>1660608</v>
+        <v>1660607</v>
       </c>
       <c r="M478" s="8">
         <v>735769</v>
@@ -74732,16 +74888,16 @@
         <v>945676</v>
       </c>
       <c r="L479" s="8">
-        <v>1036504</v>
+        <v>1036502</v>
       </c>
       <c r="M479" s="8">
-        <v>708516</v>
+        <v>708514</v>
       </c>
       <c r="N479" s="8">
         <v>166989</v>
       </c>
       <c r="O479" s="8">
-        <v>549106</v>
+        <v>549104</v>
       </c>
       <c r="P479" s="8">
         <v>3532813</v>
@@ -74785,19 +74941,19 @@
         <v>4403682</v>
       </c>
       <c r="K480" s="8">
-        <v>996684</v>
+        <v>996674</v>
       </c>
       <c r="L480" s="8">
-        <v>1376509</v>
+        <v>1376495</v>
       </c>
       <c r="M480" s="8">
-        <v>725248</v>
+        <v>725241</v>
       </c>
       <c r="N480" s="8">
-        <v>176540</v>
+        <v>176539</v>
       </c>
       <c r="O480" s="8">
-        <v>735417</v>
+        <v>735409</v>
       </c>
       <c r="P480" s="8">
         <v>4196938</v>
@@ -74841,19 +74997,19 @@
         <v>4788693</v>
       </c>
       <c r="K481" s="8">
-        <v>1191633</v>
+        <v>1191627</v>
       </c>
       <c r="L481" s="8">
-        <v>1617019</v>
+        <v>1617007</v>
       </c>
       <c r="M481" s="8">
-        <v>675145</v>
+        <v>675141</v>
       </c>
       <c r="N481" s="8">
-        <v>175589</v>
+        <v>175588</v>
       </c>
       <c r="O481" s="8">
-        <v>516259</v>
+        <v>516257</v>
       </c>
       <c r="P481" s="8">
         <v>4595713</v>
@@ -74897,19 +75053,19 @@
         <v>4570585</v>
       </c>
       <c r="K482" s="8">
-        <v>1201276</v>
+        <v>1201271</v>
       </c>
       <c r="L482" s="8">
-        <v>1200127</v>
+        <v>1200122</v>
       </c>
       <c r="M482" s="8">
-        <v>720150</v>
+        <v>720147</v>
       </c>
       <c r="N482" s="8">
-        <v>184984</v>
+        <v>184983</v>
       </c>
       <c r="O482" s="8">
-        <v>575323</v>
+        <v>575320</v>
       </c>
       <c r="P482" s="8">
         <v>4044482</v>
@@ -74953,19 +75109,19 @@
         <v>4280385</v>
       </c>
       <c r="K483" s="8">
-        <v>1052684</v>
+        <v>1052691</v>
       </c>
       <c r="L483" s="8">
-        <v>1287492</v>
+        <v>1287501</v>
       </c>
       <c r="M483" s="8">
-        <v>669679</v>
+        <v>669683</v>
       </c>
       <c r="N483" s="8">
-        <v>189996</v>
+        <v>189997</v>
       </c>
       <c r="O483" s="8">
-        <v>608584</v>
+        <v>608590</v>
       </c>
       <c r="P483" s="8">
         <v>4036641</v>
@@ -75009,19 +75165,19 @@
         <v>3717731</v>
       </c>
       <c r="K484" s="8">
-        <v>1146776</v>
+        <v>1146794</v>
       </c>
       <c r="L484" s="8">
-        <v>1175953</v>
+        <v>1175972</v>
       </c>
       <c r="M484" s="8">
-        <v>782370</v>
+        <v>782383</v>
       </c>
       <c r="N484" s="8">
-        <v>195943</v>
+        <v>195946</v>
       </c>
       <c r="O484" s="8">
-        <v>620800</v>
+        <v>620810</v>
       </c>
       <c r="P484" s="8">
         <v>4119950</v>
@@ -75065,19 +75221,19 @@
         <v>3188271</v>
       </c>
       <c r="K485" s="8">
-        <v>1096753</v>
+        <v>1096804</v>
       </c>
       <c r="L485" s="8">
-        <v>1203631</v>
+        <v>1203688</v>
       </c>
       <c r="M485" s="8">
-        <v>687647</v>
+        <v>687679</v>
       </c>
       <c r="N485" s="8">
-        <v>171219</v>
+        <v>171227</v>
       </c>
       <c r="O485" s="8">
-        <v>604699</v>
+        <v>604730</v>
       </c>
       <c r="P485" s="8">
         <v>3949276</v>
@@ -75121,19 +75277,19 @@
         <v>3831711</v>
       </c>
       <c r="K486" s="8">
-        <v>1090032</v>
+        <v>1090024</v>
       </c>
       <c r="L486" s="8">
-        <v>1149354</v>
+        <v>1149343</v>
       </c>
       <c r="M486" s="8">
-        <v>808118</v>
+        <v>808113</v>
       </c>
       <c r="N486" s="8">
-        <v>265007</v>
+        <v>265002</v>
       </c>
       <c r="O486" s="8">
-        <v>582383</v>
+        <v>582381</v>
       </c>
       <c r="P486" s="8">
         <v>4154289</v>
@@ -75177,19 +75333,19 @@
         <v>3915263</v>
       </c>
       <c r="K487" s="8">
-        <v>993086</v>
+        <v>993092</v>
       </c>
       <c r="L487" s="8">
-        <v>1138939</v>
+        <v>1138943</v>
       </c>
       <c r="M487" s="8">
-        <v>846591</v>
+        <v>846592</v>
       </c>
       <c r="N487" s="8">
-        <v>174096</v>
+        <v>174097</v>
       </c>
       <c r="O487" s="8">
-        <v>609589</v>
+        <v>609587</v>
       </c>
       <c r="P487" s="8">
         <v>4032158</v>
@@ -75233,19 +75389,19 @@
         <v>4226824</v>
       </c>
       <c r="K488" s="8">
-        <v>1280102</v>
+        <v>1280112</v>
       </c>
       <c r="L488" s="8">
-        <v>1229957</v>
+        <v>1229967</v>
       </c>
       <c r="M488" s="8">
-        <v>728962</v>
+        <v>728968</v>
       </c>
       <c r="N488" s="8">
-        <v>188026</v>
+        <v>188028</v>
       </c>
       <c r="O488" s="8">
-        <v>664046</v>
+        <v>664048</v>
       </c>
       <c r="P488" s="8">
         <v>4307291</v>
@@ -75289,19 +75445,19 @@
         <v>4546384</v>
       </c>
       <c r="K489" s="8">
-        <v>1120094</v>
+        <v>1120068</v>
       </c>
       <c r="L489" s="8">
-        <v>1185434</v>
+        <v>1185410</v>
       </c>
       <c r="M489" s="8">
-        <v>763001</v>
+        <v>762986</v>
       </c>
       <c r="N489" s="8">
-        <v>229426</v>
+        <v>229422</v>
       </c>
       <c r="O489" s="8">
-        <v>637999</v>
+        <v>637990</v>
       </c>
       <c r="P489" s="8">
         <v>4160720</v>
@@ -75345,19 +75501,19 @@
         <v>3996631</v>
       </c>
       <c r="K490" s="8">
-        <v>1225396</v>
+        <v>1225386</v>
       </c>
       <c r="L490" s="8">
-        <v>1150073</v>
+        <v>1150064</v>
       </c>
       <c r="M490" s="8">
-        <v>707503</v>
+        <v>707497</v>
       </c>
       <c r="N490" s="8">
-        <v>210129</v>
+        <v>210127</v>
       </c>
       <c r="O490" s="8">
-        <v>728345</v>
+        <v>728339</v>
       </c>
       <c r="P490" s="8">
         <v>4204474</v>
@@ -75401,19 +75557,19 @@
         <v>4760201</v>
       </c>
       <c r="K491" s="8">
-        <v>1085042</v>
+        <v>1085026</v>
       </c>
       <c r="L491" s="8">
-        <v>1257975</v>
+        <v>1257955</v>
       </c>
       <c r="M491" s="8">
-        <v>817425</v>
+        <v>817412</v>
       </c>
       <c r="N491" s="8">
-        <v>210427</v>
+        <v>210423</v>
       </c>
       <c r="O491" s="8">
-        <v>720154</v>
+        <v>720138</v>
       </c>
       <c r="P491" s="8">
         <v>4392889</v>
@@ -75457,19 +75613,19 @@
         <v>4477331</v>
       </c>
       <c r="K492" s="8">
-        <v>1307223</v>
+        <v>1307221</v>
       </c>
       <c r="L492" s="8">
-        <v>1185852</v>
+        <v>1185851</v>
       </c>
       <c r="M492" s="8">
-        <v>812794</v>
+        <v>812792</v>
       </c>
       <c r="N492" s="8">
         <v>211875</v>
       </c>
       <c r="O492" s="8">
-        <v>699853</v>
+        <v>699850</v>
       </c>
       <c r="P492" s="8">
         <v>4394803</v>
@@ -75513,19 +75669,19 @@
         <v>5369225</v>
       </c>
       <c r="K493" s="8">
-        <v>1574721</v>
+        <v>1574713</v>
       </c>
       <c r="L493" s="8">
-        <v>1508583</v>
+        <v>1508577</v>
       </c>
       <c r="M493" s="8">
-        <v>889420</v>
+        <v>889416</v>
       </c>
       <c r="N493" s="8">
-        <v>204815</v>
+        <v>204814</v>
       </c>
       <c r="O493" s="8">
-        <v>739626</v>
+        <v>739624</v>
       </c>
       <c r="P493" s="8">
         <v>5116869</v>
@@ -75569,19 +75725,19 @@
         <v>5714791</v>
       </c>
       <c r="K494" s="8">
-        <v>1320561</v>
+        <v>1320531</v>
       </c>
       <c r="L494" s="8">
-        <v>1641667</v>
+        <v>1641631</v>
       </c>
       <c r="M494" s="8">
-        <v>962378</v>
+        <v>962358</v>
       </c>
       <c r="N494" s="8">
-        <v>221052</v>
+        <v>221046</v>
       </c>
       <c r="O494" s="8">
-        <v>691862</v>
+        <v>691848</v>
       </c>
       <c r="P494" s="8">
         <v>5108390</v>
@@ -75625,19 +75781,19 @@
         <v>5287298</v>
       </c>
       <c r="K495" s="8">
-        <v>1376416</v>
+        <v>1376437</v>
       </c>
       <c r="L495" s="8">
-        <v>1382069</v>
+        <v>1382089</v>
       </c>
       <c r="M495" s="8">
-        <v>1045611</v>
+        <v>1045626</v>
       </c>
       <c r="N495" s="8">
-        <v>255862</v>
+        <v>255866</v>
       </c>
       <c r="O495" s="8">
-        <v>725904</v>
+        <v>725914</v>
       </c>
       <c r="P495" s="8">
         <v>4959381</v>
@@ -75681,19 +75837,19 @@
         <v>4687473</v>
       </c>
       <c r="K496" s="8">
-        <v>1470717</v>
+        <v>1470725</v>
       </c>
       <c r="L496" s="8">
-        <v>1388689</v>
+        <v>1388697</v>
       </c>
       <c r="M496" s="8">
-        <v>976915</v>
+        <v>976922</v>
       </c>
       <c r="N496" s="8">
-        <v>242315</v>
+        <v>242316</v>
       </c>
       <c r="O496" s="8">
-        <v>741852</v>
+        <v>741858</v>
       </c>
       <c r="P496" s="8">
         <v>5010016</v>
@@ -75737,19 +75893,19 @@
         <v>4269049</v>
       </c>
       <c r="K497" s="8">
-        <v>1571389</v>
+        <v>1571472</v>
       </c>
       <c r="L497" s="8">
-        <v>1345500</v>
+        <v>1345568</v>
       </c>
       <c r="M497" s="8">
-        <v>969999</v>
+        <v>970052</v>
       </c>
       <c r="N497" s="8">
-        <v>269733</v>
+        <v>269748</v>
       </c>
       <c r="O497" s="8">
-        <v>781663</v>
+        <v>781710</v>
       </c>
       <c r="P497" s="8">
         <v>5200218</v>
@@ -75793,19 +75949,19 @@
         <v>4601427</v>
       </c>
       <c r="K498" s="8">
-        <v>1395757</v>
+        <v>1395743</v>
       </c>
       <c r="L498" s="8">
-        <v>1474081</v>
+        <v>1474066</v>
       </c>
       <c r="M498" s="8">
-        <v>888225</v>
+        <v>888216</v>
       </c>
       <c r="N498" s="8">
-        <v>250618</v>
+        <v>250615</v>
       </c>
       <c r="O498" s="8">
-        <v>789967</v>
+        <v>789961</v>
       </c>
       <c r="P498" s="8">
         <v>4987209</v>
@@ -75849,19 +76005,19 @@
         <v>4723403</v>
       </c>
       <c r="K499" s="8">
-        <v>1498749</v>
+        <v>1498810</v>
       </c>
       <c r="L499" s="8">
-        <v>1340608</v>
+        <v>1340670</v>
       </c>
       <c r="M499" s="8">
-        <v>833747</v>
+        <v>833779</v>
       </c>
       <c r="N499" s="8">
-        <v>214760</v>
+        <v>214768</v>
       </c>
       <c r="O499" s="8">
-        <v>702489</v>
+        <v>702505</v>
       </c>
       <c r="P499" s="8">
         <v>4803902</v>
@@ -75905,19 +76061,19 @@
         <v>4546185</v>
       </c>
       <c r="K500" s="8">
-        <v>1273788</v>
+        <v>1273758</v>
       </c>
       <c r="L500" s="8">
-        <v>1575603</v>
+        <v>1575574</v>
       </c>
       <c r="M500" s="8">
-        <v>709805</v>
+        <v>709791</v>
       </c>
       <c r="N500" s="8">
-        <v>262169</v>
+        <v>262164</v>
       </c>
       <c r="O500" s="8">
-        <v>752122</v>
+        <v>752111</v>
       </c>
       <c r="P500" s="8">
         <v>4767272</v>
@@ -75961,19 +76117,19 @@
         <v>5307457</v>
       </c>
       <c r="K501" s="8">
-        <v>1323889</v>
+        <v>1323855</v>
       </c>
       <c r="L501" s="8">
-        <v>1345468</v>
+        <v>1345432</v>
       </c>
       <c r="M501" s="8">
-        <v>1061409</v>
+        <v>1061378</v>
       </c>
       <c r="N501" s="8">
-        <v>238960</v>
+        <v>238954</v>
       </c>
       <c r="O501" s="8">
-        <v>785893</v>
+        <v>785868</v>
       </c>
       <c r="P501" s="8">
         <v>4986527</v>
@@ -76017,19 +76173,19 @@
         <v>4925466</v>
       </c>
       <c r="K502" s="8">
-        <v>1421125</v>
+        <v>1421112</v>
       </c>
       <c r="L502" s="8">
-        <v>1555473</v>
+        <v>1555460</v>
       </c>
       <c r="M502" s="8">
-        <v>1087356</v>
+        <v>1087349</v>
       </c>
       <c r="N502" s="8">
-        <v>228225</v>
+        <v>228223</v>
       </c>
       <c r="O502" s="8">
-        <v>762001</v>
+        <v>761997</v>
       </c>
       <c r="P502" s="8">
         <v>5236651</v>
@@ -76073,19 +76229,19 @@
         <v>5379922</v>
       </c>
       <c r="K503" s="8">
-        <v>1298197</v>
+        <v>1298155</v>
       </c>
       <c r="L503" s="8">
-        <v>1406446</v>
+        <v>1406399</v>
       </c>
       <c r="M503" s="8">
-        <v>930234</v>
+        <v>930202</v>
       </c>
       <c r="N503" s="8">
-        <v>235997</v>
+        <v>235989</v>
       </c>
       <c r="O503" s="8">
-        <v>875957</v>
+        <v>875924</v>
       </c>
       <c r="P503" s="8">
         <v>4960749</v>
@@ -76129,19 +76285,19 @@
         <v>5565532</v>
       </c>
       <c r="K504" s="8">
-        <v>1518341</v>
+        <v>1518319</v>
       </c>
       <c r="L504" s="8">
-        <v>1677066</v>
+        <v>1677041</v>
       </c>
       <c r="M504" s="8">
-        <v>1072516</v>
+        <v>1072500</v>
       </c>
       <c r="N504" s="8">
-        <v>253809</v>
+        <v>253806</v>
       </c>
       <c r="O504" s="8">
-        <v>774621</v>
+        <v>774609</v>
       </c>
       <c r="P504" s="8">
         <v>5512437</v>
@@ -76185,19 +76341,19 @@
         <v>5074102</v>
       </c>
       <c r="K505" s="8">
-        <v>1190629</v>
+        <v>1190638</v>
       </c>
       <c r="L505" s="8">
-        <v>1435149</v>
+        <v>1435158</v>
       </c>
       <c r="M505" s="8">
-        <v>821999</v>
+        <v>822004</v>
       </c>
       <c r="N505" s="8">
-        <v>274899</v>
+        <v>274901</v>
       </c>
       <c r="O505" s="8">
-        <v>754529</v>
+        <v>754532</v>
       </c>
       <c r="P505" s="8">
         <v>4620058</v>
@@ -76241,19 +76397,19 @@
         <v>5732819</v>
       </c>
       <c r="K506" s="8">
-        <v>1396957</v>
+        <v>1396917</v>
       </c>
       <c r="L506" s="8">
-        <v>1570016</v>
+        <v>1569980</v>
       </c>
       <c r="M506" s="8">
-        <v>918744</v>
+        <v>918722</v>
       </c>
       <c r="N506" s="8">
-        <v>241083</v>
+        <v>241077</v>
       </c>
       <c r="O506" s="8">
-        <v>770441</v>
+        <v>770427</v>
       </c>
       <c r="P506" s="8">
         <v>5100204</v>
@@ -76297,19 +76453,19 @@
         <v>6030745</v>
       </c>
       <c r="K507" s="8">
-        <v>1487238</v>
+        <v>1487257</v>
       </c>
       <c r="L507" s="8">
-        <v>2198959</v>
+        <v>2198993</v>
       </c>
       <c r="M507" s="8">
-        <v>1011153</v>
+        <v>1011168</v>
       </c>
       <c r="N507" s="8">
-        <v>208099</v>
+        <v>208102</v>
       </c>
       <c r="O507" s="8">
-        <v>815903</v>
+        <v>815918</v>
       </c>
       <c r="P507" s="8">
         <v>5978447</v>
@@ -76353,19 +76509,19 @@
         <v>5605067</v>
       </c>
       <c r="K508" s="8">
-        <v>1831576</v>
+        <v>1831623</v>
       </c>
       <c r="L508" s="8">
-        <v>1633024</v>
+        <v>1633064</v>
       </c>
       <c r="M508" s="8">
-        <v>1038546</v>
+        <v>1038573</v>
       </c>
       <c r="N508" s="8">
-        <v>251355</v>
+        <v>251362</v>
       </c>
       <c r="O508" s="8">
-        <v>832247</v>
+        <v>832271</v>
       </c>
       <c r="P508" s="8">
         <v>5795226</v>
@@ -76409,19 +76565,19 @@
         <v>5039819</v>
       </c>
       <c r="K509" s="8">
-        <v>1732267</v>
+        <v>1732401</v>
       </c>
       <c r="L509" s="8">
-        <v>1609541</v>
+        <v>1609666</v>
       </c>
       <c r="M509" s="8">
-        <v>1590264</v>
+        <v>1590377</v>
       </c>
       <c r="N509" s="8">
-        <v>302451</v>
+        <v>302474</v>
       </c>
       <c r="O509" s="8">
-        <v>741748</v>
+        <v>741801</v>
       </c>
       <c r="P509" s="8">
         <v>6199716</v>
@@ -76465,19 +76621,19 @@
         <v>5368785</v>
       </c>
       <c r="K510" s="8">
-        <v>1850528</v>
+        <v>1850513</v>
       </c>
       <c r="L510" s="8">
-        <v>1852100</v>
+        <v>1852084</v>
       </c>
       <c r="M510" s="8">
-        <v>1040093</v>
+        <v>1040084</v>
       </c>
       <c r="N510" s="8">
-        <v>220243</v>
+        <v>220241</v>
       </c>
       <c r="O510" s="8">
-        <v>666810</v>
+        <v>666805</v>
       </c>
       <c r="P510" s="8">
         <v>5785713</v>
@@ -76521,19 +76677,19 @@
         <v>6356909</v>
       </c>
       <c r="K511" s="8">
-        <v>1845442</v>
+        <v>1845526</v>
       </c>
       <c r="L511" s="8">
-        <v>1828143</v>
+        <v>1828225</v>
       </c>
       <c r="M511" s="8">
-        <v>1271945</v>
+        <v>1271989</v>
       </c>
       <c r="N511" s="8">
-        <v>239275</v>
+        <v>239288</v>
       </c>
       <c r="O511" s="8">
-        <v>807614</v>
+        <v>807638</v>
       </c>
       <c r="P511" s="8">
         <v>6194230</v>
@@ -76577,19 +76733,19 @@
         <v>5593703</v>
       </c>
       <c r="K512" s="8">
-        <v>1733148</v>
+        <v>1733098</v>
       </c>
       <c r="L512" s="8">
-        <v>1726655</v>
+        <v>1726605</v>
       </c>
       <c r="M512" s="8">
-        <v>1057464</v>
+        <v>1057434</v>
       </c>
       <c r="N512" s="8">
-        <v>228937</v>
+        <v>228930</v>
       </c>
       <c r="O512" s="8">
-        <v>791194</v>
+        <v>791174</v>
       </c>
       <c r="P512" s="8">
         <v>5887475</v>
@@ -76633,19 +76789,19 @@
         <v>6781540</v>
       </c>
       <c r="K513" s="8">
-        <v>2008992</v>
+        <v>2008943</v>
       </c>
       <c r="L513" s="8">
-        <v>1928639</v>
+        <v>1928595</v>
       </c>
       <c r="M513" s="8">
-        <v>1180646</v>
+        <v>1180610</v>
       </c>
       <c r="N513" s="8">
-        <v>194117</v>
+        <v>194112</v>
       </c>
       <c r="O513" s="8">
-        <v>899714</v>
+        <v>899696</v>
       </c>
       <c r="P513" s="8">
         <v>6440040</v>
@@ -76689,19 +76845,19 @@
         <v>5816875</v>
       </c>
       <c r="K514" s="8">
-        <v>1894751</v>
+        <v>1894759</v>
       </c>
       <c r="L514" s="8">
-        <v>1625647</v>
+        <v>1625654</v>
       </c>
       <c r="M514" s="8">
-        <v>1177500</v>
+        <v>1177504</v>
       </c>
       <c r="N514" s="8">
-        <v>219243</v>
+        <v>219244</v>
       </c>
       <c r="O514" s="8">
-        <v>715821</v>
+        <v>715825</v>
       </c>
       <c r="P514" s="8">
         <v>5890265</v>
@@ -76745,19 +76901,19 @@
         <v>6793522</v>
       </c>
       <c r="K515" s="8">
-        <v>2440722</v>
+        <v>2440634</v>
       </c>
       <c r="L515" s="8">
-        <v>1694313</v>
+        <v>1694249</v>
       </c>
       <c r="M515" s="8">
-        <v>995127</v>
+        <v>995090</v>
       </c>
       <c r="N515" s="8">
-        <v>222437</v>
+        <v>222429</v>
       </c>
       <c r="O515" s="8">
-        <v>669701</v>
+        <v>669677</v>
       </c>
       <c r="P515" s="8">
         <v>6202210</v>
@@ -76801,19 +76957,19 @@
         <v>5771673</v>
       </c>
       <c r="K516" s="8">
-        <v>1819564</v>
+        <v>1819531</v>
       </c>
       <c r="L516" s="8">
-        <v>1772809</v>
+        <v>1772775</v>
       </c>
       <c r="M516" s="8">
-        <v>1031534</v>
+        <v>1031514</v>
       </c>
       <c r="N516" s="8">
-        <v>270004</v>
+        <v>269999</v>
       </c>
       <c r="O516" s="8">
-        <v>842898</v>
+        <v>842877</v>
       </c>
       <c r="P516" s="8">
         <v>5978901</v>
@@ -76857,19 +77013,19 @@
         <v>6737548</v>
       </c>
       <c r="K517" s="8">
-        <v>1483201</v>
+        <v>1483177</v>
       </c>
       <c r="L517" s="8">
-        <v>1720933</v>
+        <v>1720912</v>
       </c>
       <c r="M517" s="8">
-        <v>1829419</v>
+        <v>1829412</v>
       </c>
       <c r="N517" s="8">
-        <v>219329</v>
+        <v>219327</v>
       </c>
       <c r="O517" s="8">
-        <v>587517</v>
+        <v>587513</v>
       </c>
       <c r="P517" s="8">
         <v>6063021</v>
@@ -76913,19 +77069,19 @@
         <v>7274263</v>
       </c>
       <c r="K518" s="8">
-        <v>1989361</v>
+        <v>1989376</v>
       </c>
       <c r="L518" s="8">
-        <v>2288594</v>
+        <v>2288609</v>
       </c>
       <c r="M518" s="8">
-        <v>1190334</v>
+        <v>1190342</v>
       </c>
       <c r="N518" s="8">
-        <v>316421</v>
+        <v>316423</v>
       </c>
       <c r="O518" s="8">
-        <v>637729</v>
+        <v>637732</v>
       </c>
       <c r="P518" s="8">
         <v>6640811</v>
@@ -76969,19 +77125,19 @@
         <v>6006347</v>
       </c>
       <c r="K519" s="8">
-        <v>2133599</v>
+        <v>2133628</v>
       </c>
       <c r="L519" s="8">
-        <v>1609116</v>
+        <v>1609132</v>
       </c>
       <c r="M519" s="8">
-        <v>1257858</v>
+        <v>1257877</v>
       </c>
       <c r="N519" s="8">
-        <v>249494</v>
+        <v>249496</v>
       </c>
       <c r="O519" s="8">
-        <v>545281</v>
+        <v>545288</v>
       </c>
       <c r="P519" s="8">
         <v>5968026</v>
@@ -77025,19 +77181,19 @@
         <v>6147794</v>
       </c>
       <c r="K520" s="8">
-        <v>2343284</v>
+        <v>2343369</v>
       </c>
       <c r="L520" s="8">
-        <v>1828980</v>
+        <v>1829048</v>
       </c>
       <c r="M520" s="8">
-        <v>1226888</v>
+        <v>1226934</v>
       </c>
       <c r="N520" s="8">
-        <v>253506</v>
+        <v>253514</v>
       </c>
       <c r="O520" s="8">
-        <v>582385</v>
+        <v>582407</v>
       </c>
       <c r="P520" s="8">
         <v>6428323</v>
@@ -77081,19 +77237,19 @@
         <v>4738878</v>
       </c>
       <c r="K521" s="8">
-        <v>1491924</v>
+        <v>1491983</v>
       </c>
       <c r="L521" s="8">
-        <v>1805068</v>
+        <v>1805142</v>
       </c>
       <c r="M521" s="8">
-        <v>1370782</v>
+        <v>1370848</v>
       </c>
       <c r="N521" s="8">
-        <v>307594</v>
+        <v>307608</v>
       </c>
       <c r="O521" s="8">
-        <v>635841</v>
+        <v>635871</v>
       </c>
       <c r="P521" s="8">
         <v>5826643</v>
@@ -77137,19 +77293,19 @@
         <v>5927704</v>
       </c>
       <c r="K522" s="8">
-        <v>1959153</v>
+        <v>1959195</v>
       </c>
       <c r="L522" s="8">
-        <v>1754043</v>
+        <v>1754080</v>
       </c>
       <c r="M522" s="8">
-        <v>1289202</v>
+        <v>1289228</v>
       </c>
       <c r="N522" s="8">
-        <v>275078</v>
+        <v>275084</v>
       </c>
       <c r="O522" s="8">
-        <v>619473</v>
+        <v>619485</v>
       </c>
       <c r="P522" s="8">
         <v>6243979</v>
@@ -77193,19 +77349,19 @@
         <v>6303882</v>
       </c>
       <c r="K523" s="8">
-        <v>2165354</v>
+        <v>2165484</v>
       </c>
       <c r="L523" s="8">
-        <v>1795364</v>
+        <v>1795474</v>
       </c>
       <c r="M523" s="8">
-        <v>1404637</v>
+        <v>1404710</v>
       </c>
       <c r="N523" s="8">
-        <v>316366</v>
+        <v>316386</v>
       </c>
       <c r="O523" s="8">
-        <v>592835</v>
+        <v>592868</v>
       </c>
       <c r="P523" s="8">
         <v>6482973</v>
@@ -77249,19 +77405,19 @@
         <v>7068207</v>
       </c>
       <c r="K524" s="8">
-        <v>2484032</v>
+        <v>2483963</v>
       </c>
       <c r="L524" s="8">
-        <v>2032697</v>
+        <v>2032636</v>
       </c>
       <c r="M524" s="8">
-        <v>1360906</v>
+        <v>1360868</v>
       </c>
       <c r="N524" s="8">
-        <v>283821</v>
+        <v>283813</v>
       </c>
       <c r="O524" s="8">
-        <v>569610</v>
+        <v>569594</v>
       </c>
       <c r="P524" s="8">
         <v>6940982</v>
@@ -77305,19 +77461,19 @@
         <v>6724481</v>
       </c>
       <c r="K525" s="8">
-        <v>2258842</v>
+        <v>2258836</v>
       </c>
       <c r="L525" s="8">
-        <v>1924030</v>
+        <v>1924025</v>
       </c>
       <c r="M525" s="8">
-        <v>1155098</v>
+        <v>1155095</v>
       </c>
       <c r="N525" s="8">
-        <v>248046</v>
+        <v>248045</v>
       </c>
       <c r="O525" s="8">
-        <v>485173</v>
+        <v>485172</v>
       </c>
       <c r="P525" s="8">
         <v>6418166</v>
@@ -77361,19 +77517,19 @@
         <v>6066381</v>
       </c>
       <c r="K526" s="8">
-        <v>2105876</v>
+        <v>2105822</v>
       </c>
       <c r="L526" s="8">
-        <v>2039065</v>
+        <v>2039019</v>
       </c>
       <c r="M526" s="8">
-        <v>1111607</v>
+        <v>1111584</v>
       </c>
       <c r="N526" s="8">
-        <v>279529</v>
+        <v>279521</v>
       </c>
       <c r="O526" s="8">
-        <v>502667</v>
+        <v>502657</v>
       </c>
       <c r="P526" s="8">
         <v>6205600</v>
@@ -77417,19 +77573,19 @@
         <v>7275842</v>
       </c>
       <c r="K527" s="8">
-        <v>2310696</v>
+        <v>2310623</v>
       </c>
       <c r="L527" s="8">
-        <v>2166139</v>
+        <v>2166073</v>
       </c>
       <c r="M527" s="8">
-        <v>1211545</v>
+        <v>1211507</v>
       </c>
       <c r="N527" s="8">
-        <v>239853</v>
+        <v>239844</v>
       </c>
       <c r="O527" s="8">
-        <v>627676</v>
+        <v>627658</v>
       </c>
       <c r="P527" s="8">
         <v>6756089</v>
@@ -77473,19 +77629,19 @@
         <v>7217210</v>
       </c>
       <c r="K528" s="8">
-        <v>2826233</v>
+        <v>2826080</v>
       </c>
       <c r="L528" s="8">
-        <v>2132906</v>
+        <v>2132786</v>
       </c>
       <c r="M528" s="8">
-        <v>1170211</v>
+        <v>1170146</v>
       </c>
       <c r="N528" s="8">
-        <v>236008</v>
+        <v>235994</v>
       </c>
       <c r="O528" s="8">
-        <v>552934</v>
+        <v>552904</v>
       </c>
       <c r="P528" s="8">
         <v>7124355</v>
@@ -77529,19 +77685,19 @@
         <v>6881430</v>
       </c>
       <c r="K529" s="8">
-        <v>2210138</v>
+        <v>2210203</v>
       </c>
       <c r="L529" s="8">
-        <v>1966835</v>
+        <v>1966899</v>
       </c>
       <c r="M529" s="8">
-        <v>1123292</v>
+        <v>1123327</v>
       </c>
       <c r="N529" s="8">
-        <v>248671</v>
+        <v>248680</v>
       </c>
       <c r="O529" s="8">
-        <v>496653</v>
+        <v>496667</v>
       </c>
       <c r="P529" s="8">
         <v>6310513</v>
@@ -77585,19 +77741,19 @@
         <v>5687018</v>
       </c>
       <c r="K530" s="8">
-        <v>1920982</v>
+        <v>1921031</v>
       </c>
       <c r="L530" s="8">
-        <v>1465822</v>
+        <v>1465857</v>
       </c>
       <c r="M530" s="8">
-        <v>1056766</v>
+        <v>1056793</v>
       </c>
       <c r="N530" s="8">
-        <v>237821</v>
+        <v>237826</v>
       </c>
       <c r="O530" s="8">
-        <v>506982</v>
+        <v>506995</v>
       </c>
       <c r="P530" s="8">
         <v>5439194</v>
@@ -77641,19 +77797,19 @@
         <v>6164366</v>
       </c>
       <c r="K531" s="8">
-        <v>1899770</v>
+        <v>1899772</v>
       </c>
       <c r="L531" s="8">
         <v>1810627</v>
       </c>
       <c r="M531" s="8">
-        <v>943359</v>
+        <v>943357</v>
       </c>
       <c r="N531" s="8">
-        <v>269616</v>
+        <v>269615</v>
       </c>
       <c r="O531" s="8">
-        <v>574154</v>
+        <v>574158</v>
       </c>
       <c r="P531" s="8">
         <v>5758173</v>
@@ -77697,19 +77853,19 @@
         <v>5503688</v>
       </c>
       <c r="K532" s="8">
-        <v>1759120</v>
+        <v>1759231</v>
       </c>
       <c r="L532" s="8">
-        <v>2165002</v>
+        <v>2165112</v>
       </c>
       <c r="M532" s="8">
-        <v>984226</v>
+        <v>984278</v>
       </c>
       <c r="N532" s="8">
-        <v>246070</v>
+        <v>246084</v>
       </c>
       <c r="O532" s="8">
-        <v>529272</v>
+        <v>529297</v>
       </c>
       <c r="P532" s="8">
         <v>5931147</v>
@@ -77753,19 +77909,19 @@
         <v>4934206</v>
       </c>
       <c r="K533" s="8">
-        <v>1968788</v>
+        <v>1969042</v>
       </c>
       <c r="L533" s="8">
-        <v>2216658</v>
+        <v>2216943</v>
       </c>
       <c r="M533" s="8">
-        <v>961049</v>
+        <v>961173</v>
       </c>
       <c r="N533" s="8">
-        <v>276593</v>
+        <v>276628</v>
       </c>
       <c r="O533" s="8">
-        <v>471816</v>
+        <v>471877</v>
       </c>
       <c r="P533" s="8">
         <v>6096142</v>
@@ -77809,19 +77965,19 @@
         <v>6679131</v>
       </c>
       <c r="K534" s="8">
-        <v>2238414</v>
+        <v>2238399</v>
       </c>
       <c r="L534" s="8">
-        <v>1970841</v>
+        <v>1970825</v>
       </c>
       <c r="M534" s="8">
-        <v>1828293</v>
+        <v>1828289</v>
       </c>
       <c r="N534" s="8">
-        <v>237833</v>
+        <v>237831</v>
       </c>
       <c r="O534" s="8">
-        <v>498892</v>
+        <v>498890</v>
       </c>
       <c r="P534" s="8">
         <v>7029553</v>
@@ -77865,19 +78021,19 @@
         <v>5985976</v>
       </c>
       <c r="K535" s="8">
-        <v>1878152</v>
+        <v>1878266</v>
       </c>
       <c r="L535" s="8">
-        <v>1781247</v>
+        <v>1781346</v>
       </c>
       <c r="M535" s="8">
-        <v>1045434</v>
+        <v>1045488</v>
       </c>
       <c r="N535" s="8">
-        <v>239404</v>
+        <v>239418</v>
       </c>
       <c r="O535" s="8">
-        <v>463293</v>
+        <v>463315</v>
       </c>
       <c r="P535" s="8">
         <v>5603159</v>
@@ -77921,19 +78077,19 @@
         <v>5646562</v>
       </c>
       <c r="K536" s="8">
-        <v>2219268</v>
+        <v>2219060</v>
       </c>
       <c r="L536" s="8">
-        <v>1765324</v>
+        <v>1765143</v>
       </c>
       <c r="M536" s="8">
-        <v>1266599</v>
+        <v>1266484</v>
       </c>
       <c r="N536" s="8">
-        <v>264684</v>
+        <v>264656</v>
       </c>
       <c r="O536" s="8">
-        <v>449164</v>
+        <v>449120</v>
       </c>
       <c r="P536" s="8">
         <v>6181248</v>
@@ -77977,19 +78133,19 @@
         <v>6237338</v>
       </c>
       <c r="K537" s="8">
-        <v>1790175</v>
+        <v>1790162</v>
       </c>
       <c r="L537" s="8">
-        <v>1874330</v>
+        <v>1874314</v>
       </c>
       <c r="M537" s="8">
-        <v>1263046</v>
+        <v>1263040</v>
       </c>
       <c r="N537" s="8">
-        <v>369914</v>
+        <v>369913</v>
       </c>
       <c r="O537" s="8">
-        <v>458924</v>
+        <v>458921</v>
       </c>
       <c r="P537" s="8">
         <v>5974972</v>
@@ -78033,19 +78189,19 @@
         <v>6431376</v>
       </c>
       <c r="K538" s="8">
-        <v>2192318</v>
+        <v>2192306</v>
       </c>
       <c r="L538" s="8">
-        <v>1931214</v>
+        <v>1931205</v>
       </c>
       <c r="M538" s="8">
-        <v>1145851</v>
+        <v>1145846</v>
       </c>
       <c r="N538" s="8">
-        <v>267725</v>
+        <v>267723</v>
       </c>
       <c r="O538" s="8">
-        <v>577084</v>
+        <v>577083</v>
       </c>
       <c r="P538" s="8">
         <v>6339449</v>
@@ -78089,19 +78245,19 @@
         <v>6533846</v>
       </c>
       <c r="K539" s="8">
-        <v>2304411</v>
+        <v>2304390</v>
       </c>
       <c r="L539" s="8">
-        <v>1999008</v>
+        <v>1998996</v>
       </c>
       <c r="M539" s="8">
-        <v>1078104</v>
+        <v>1078096</v>
       </c>
       <c r="N539" s="8">
-        <v>287057</v>
+        <v>287056</v>
       </c>
       <c r="O539" s="8">
-        <v>488280</v>
+        <v>488275</v>
       </c>
       <c r="P539" s="8">
         <v>6344543</v>
@@ -78145,19 +78301,19 @@
         <v>6643648</v>
       </c>
       <c r="K540" s="8">
-        <v>2287087</v>
+        <v>2286951</v>
       </c>
       <c r="L540" s="8">
-        <v>1999177</v>
+        <v>1999064</v>
       </c>
       <c r="M540" s="8">
-        <v>1191066</v>
+        <v>1191000</v>
       </c>
       <c r="N540" s="8">
-        <v>267616</v>
+        <v>267601</v>
       </c>
       <c r="O540" s="8">
-        <v>471487</v>
+        <v>471460</v>
       </c>
       <c r="P540" s="8">
         <v>6457803</v>
@@ -78201,19 +78357,19 @@
         <v>7472065</v>
       </c>
       <c r="K541" s="8">
-        <v>2932913</v>
+        <v>2932950</v>
       </c>
       <c r="L541" s="8">
-        <v>1937321</v>
+        <v>1937350</v>
       </c>
       <c r="M541" s="8">
-        <v>1013908</v>
+        <v>1013924</v>
       </c>
       <c r="N541" s="8">
-        <v>356283</v>
+        <v>356288</v>
       </c>
       <c r="O541" s="8">
-        <v>554177</v>
+        <v>554185</v>
       </c>
       <c r="P541" s="8">
         <v>7052483</v>
@@ -78257,19 +78413,19 @@
         <v>7393070</v>
       </c>
       <c r="K542" s="8">
-        <v>2424025</v>
+        <v>2424040</v>
       </c>
       <c r="L542" s="8">
-        <v>2261169</v>
+        <v>2261185</v>
       </c>
       <c r="M542" s="8">
-        <v>1072707</v>
+        <v>1072713</v>
       </c>
       <c r="N542" s="8">
-        <v>320313</v>
+        <v>320315</v>
       </c>
       <c r="O542" s="8">
-        <v>499032</v>
+        <v>499037</v>
       </c>
       <c r="P542" s="8">
         <v>6749928</v>
@@ -78313,19 +78469,19 @@
         <v>8420676</v>
       </c>
       <c r="K543" s="8">
-        <v>2239302</v>
+        <v>2239367</v>
       </c>
       <c r="L543" s="8">
-        <v>3643136</v>
+        <v>3643226</v>
       </c>
       <c r="M543" s="8">
-        <v>1231514</v>
+        <v>1231550</v>
       </c>
       <c r="N543" s="8">
-        <v>268763</v>
+        <v>268772</v>
       </c>
       <c r="O543" s="8">
-        <v>527245</v>
+        <v>527260</v>
       </c>
       <c r="P543" s="8">
         <v>8077797</v>
@@ -78369,19 +78525,19 @@
         <v>5560800</v>
       </c>
       <c r="K544" s="8">
-        <v>1960821</v>
+        <v>1960781</v>
       </c>
       <c r="L544" s="8">
-        <v>2054459</v>
+        <v>2054410</v>
       </c>
       <c r="M544" s="8">
-        <v>1166590</v>
+        <v>1166566</v>
       </c>
       <c r="N544" s="8">
-        <v>261574</v>
+        <v>261566</v>
       </c>
       <c r="O544" s="8">
-        <v>495443</v>
+        <v>495435</v>
       </c>
       <c r="P544" s="8">
         <v>6106318</v>
@@ -78425,19 +78581,19 @@
         <v>5877312</v>
       </c>
       <c r="K545" s="8">
-        <v>2284669</v>
+        <v>2284877</v>
       </c>
       <c r="L545" s="8">
-        <v>2720555</v>
+        <v>2720807</v>
       </c>
       <c r="M545" s="8">
-        <v>1364227</v>
+        <v>1364351</v>
       </c>
       <c r="N545" s="8">
-        <v>258620</v>
+        <v>258641</v>
       </c>
       <c r="O545" s="8">
-        <v>516165</v>
+        <v>516213</v>
       </c>
       <c r="P545" s="8">
         <v>7346162</v>
@@ -78481,19 +78637,19 @@
         <v>6423870</v>
       </c>
       <c r="K546" s="8">
-        <v>2293072</v>
+        <v>2293091</v>
       </c>
       <c r="L546" s="8">
-        <v>2122235</v>
+        <v>2122252</v>
       </c>
       <c r="M546" s="8">
-        <v>1340223</v>
+        <v>1340237</v>
       </c>
       <c r="N546" s="8">
-        <v>284981</v>
+        <v>284983</v>
       </c>
       <c r="O546" s="8">
-        <v>416716</v>
+        <v>416719</v>
       </c>
       <c r="P546" s="8">
         <v>6703042</v>
@@ -78537,19 +78693,19 @@
         <v>6933173</v>
       </c>
       <c r="K547" s="8">
-        <v>2164652</v>
+        <v>2164929</v>
       </c>
       <c r="L547" s="8">
-        <v>2404151</v>
+        <v>2404411</v>
       </c>
       <c r="M547" s="8">
-        <v>1182270</v>
+        <v>1182427</v>
       </c>
       <c r="N547" s="8">
-        <v>271525</v>
+        <v>271566</v>
       </c>
       <c r="O547" s="8">
-        <v>358045</v>
+        <v>358105</v>
       </c>
       <c r="P547" s="8">
         <v>6759882</v>
@@ -78593,19 +78749,19 @@
         <v>6255183</v>
       </c>
       <c r="K548" s="8">
-        <v>2093720</v>
+        <v>2093474</v>
       </c>
       <c r="L548" s="8">
-        <v>2297179</v>
+        <v>2296924</v>
       </c>
       <c r="M548" s="8">
-        <v>1189296</v>
+        <v>1189163</v>
       </c>
       <c r="N548" s="8">
-        <v>291049</v>
+        <v>291012</v>
       </c>
       <c r="O548" s="8">
-        <v>481393</v>
+        <v>481340</v>
       </c>
       <c r="P548" s="8">
         <v>6539074</v>
@@ -78649,19 +78805,19 @@
         <v>7008702</v>
       </c>
       <c r="K549" s="8">
-        <v>2096086</v>
+        <v>2096193</v>
       </c>
       <c r="L549" s="8">
-        <v>2257911</v>
+        <v>2258022</v>
       </c>
       <c r="M549" s="8">
-        <v>1062333</v>
+        <v>1062392</v>
       </c>
       <c r="N549" s="8">
-        <v>418430</v>
+        <v>418448</v>
       </c>
       <c r="O549" s="8">
-        <v>492041</v>
+        <v>492064</v>
       </c>
       <c r="P549" s="8">
         <v>6575342</v>
@@ -78705,19 +78861,19 @@
         <v>6721407</v>
       </c>
       <c r="K550" s="8">
-        <v>2166454</v>
+        <v>2166330</v>
       </c>
       <c r="L550" s="8">
-        <v>2124036</v>
+        <v>2123907</v>
       </c>
       <c r="M550" s="8">
-        <v>1243896</v>
+        <v>1243816</v>
       </c>
       <c r="N550" s="8">
-        <v>321905</v>
+        <v>321882</v>
       </c>
       <c r="O550" s="8">
-        <v>521677</v>
+        <v>521651</v>
       </c>
       <c r="P550" s="8">
         <v>6776633</v>
@@ -78761,19 +78917,19 @@
         <v>6817375</v>
       </c>
       <c r="K551" s="8">
-        <v>2059433</v>
+        <v>2059377</v>
       </c>
       <c r="L551" s="8">
-        <v>1984073</v>
+        <v>1984020</v>
       </c>
       <c r="M551" s="8">
-        <v>1226515</v>
+        <v>1226482</v>
       </c>
       <c r="N551" s="8">
-        <v>284670</v>
+        <v>284662</v>
       </c>
       <c r="O551" s="8">
-        <v>466080</v>
+        <v>466068</v>
       </c>
       <c r="P551" s="8">
         <v>6395352</v>
@@ -78817,19 +78973,19 @@
         <v>6317089</v>
       </c>
       <c r="K552" s="8">
-        <v>2091019</v>
+        <v>2090799</v>
       </c>
       <c r="L552" s="8">
-        <v>1966725</v>
+        <v>1966505</v>
       </c>
       <c r="M552" s="8">
-        <v>1165113</v>
+        <v>1164991</v>
       </c>
       <c r="N552" s="8">
-        <v>289113</v>
+        <v>289080</v>
       </c>
       <c r="O552" s="8">
-        <v>433872</v>
+        <v>433827</v>
       </c>
       <c r="P552" s="8">
         <v>6185320</v>
@@ -78873,19 +79029,19 @@
         <v>5949075</v>
       </c>
       <c r="K553" s="8">
-        <v>1817751</v>
+        <v>1817711</v>
       </c>
       <c r="L553" s="8">
-        <v>2134015</v>
+        <v>2133971</v>
       </c>
       <c r="M553" s="8">
-        <v>957863</v>
+        <v>957841</v>
       </c>
       <c r="N553" s="8">
-        <v>253404</v>
+        <v>253398</v>
       </c>
       <c r="O553" s="8">
-        <v>397636</v>
+        <v>397628</v>
       </c>
       <c r="P553" s="8">
         <v>5788355</v>
@@ -78929,19 +79085,19 @@
         <v>6604152</v>
       </c>
       <c r="K554" s="8">
-        <v>1964636</v>
+        <v>1964603</v>
       </c>
       <c r="L554" s="8">
-        <v>2143405</v>
+        <v>2143373</v>
       </c>
       <c r="M554" s="8">
-        <v>968898</v>
+        <v>968870</v>
       </c>
       <c r="N554" s="8">
-        <v>224124</v>
+        <v>224117</v>
       </c>
       <c r="O554" s="8">
-        <v>400338</v>
+        <v>400330</v>
       </c>
       <c r="P554" s="8">
         <v>6035832</v>
@@ -78985,19 +79141,19 @@
         <v>6005144</v>
       </c>
       <c r="K555" s="8">
-        <v>1610603</v>
+        <v>1610851</v>
       </c>
       <c r="L555" s="8">
-        <v>2048423</v>
+        <v>2048713</v>
       </c>
       <c r="M555" s="8">
-        <v>950421</v>
+        <v>950572</v>
       </c>
       <c r="N555" s="8">
-        <v>236828</v>
+        <v>236866</v>
       </c>
       <c r="O555" s="8">
-        <v>392986</v>
+        <v>393041</v>
       </c>
       <c r="P555" s="8">
         <v>5567508</v>
@@ -79041,19 +79197,19 @@
         <v>4644686</v>
       </c>
       <c r="K556" s="8">
-        <v>1815863</v>
+        <v>1815974</v>
       </c>
       <c r="L556" s="8">
-        <v>1688256</v>
+        <v>1688358</v>
       </c>
       <c r="M556" s="8">
-        <v>956217</v>
+        <v>956273</v>
       </c>
       <c r="N556" s="8">
-        <v>269180</v>
+        <v>269196</v>
       </c>
       <c r="O556" s="8">
-        <v>376497</v>
+        <v>376521</v>
       </c>
       <c r="P556" s="8">
         <v>5333989</v>
@@ -79097,19 +79253,19 @@
         <v>4405798</v>
       </c>
       <c r="K557" s="8">
-        <v>1872782</v>
+        <v>1873145</v>
       </c>
       <c r="L557" s="8">
-        <v>1788938</v>
+        <v>1789284</v>
       </c>
       <c r="M557" s="8">
-        <v>821080</v>
+        <v>821253</v>
       </c>
       <c r="N557" s="8">
-        <v>247235</v>
+        <v>247282</v>
       </c>
       <c r="O557" s="8">
-        <v>462103</v>
+        <v>462189</v>
       </c>
       <c r="P557" s="8">
         <v>5446707</v>
@@ -79153,19 +79309,19 @@
         <v>6088732</v>
       </c>
       <c r="K558" s="8">
-        <v>2044422</v>
+        <v>2044454</v>
       </c>
       <c r="L558" s="8">
-        <v>2297656</v>
+        <v>2297694</v>
       </c>
       <c r="M558" s="8">
-        <v>968248</v>
+        <v>968256</v>
       </c>
       <c r="N558" s="8">
-        <v>308985</v>
+        <v>308989</v>
       </c>
       <c r="O558" s="8">
-        <v>466581</v>
+        <v>466589</v>
       </c>
       <c r="P558" s="8">
         <v>6312173</v>
@@ -79209,19 +79365,19 @@
         <v>5813181</v>
       </c>
       <c r="K559" s="8">
-        <v>1614832</v>
+        <v>1614663</v>
       </c>
       <c r="L559" s="8">
-        <v>2003004</v>
+        <v>2002779</v>
       </c>
       <c r="M559" s="8">
-        <v>830414</v>
+        <v>830334</v>
       </c>
       <c r="N559" s="8">
-        <v>261450</v>
+        <v>261422</v>
       </c>
       <c r="O559" s="8">
-        <v>408374</v>
+        <v>408328</v>
       </c>
       <c r="P559" s="8">
         <v>5477238</v>
@@ -79265,19 +79421,19 @@
         <v>5037036</v>
       </c>
       <c r="K560" s="8">
-        <v>1646545</v>
+        <v>1646465</v>
       </c>
       <c r="L560" s="8">
-        <v>1790886</v>
+        <v>1790799</v>
       </c>
       <c r="M560" s="8">
-        <v>917629</v>
+        <v>917587</v>
       </c>
       <c r="N560" s="8">
-        <v>269827</v>
+        <v>269814</v>
       </c>
       <c r="O560" s="8">
-        <v>424868</v>
+        <v>424847</v>
       </c>
       <c r="P560" s="8">
         <v>5335470</v>
@@ -79321,19 +79477,19 @@
         <v>6120579</v>
       </c>
       <c r="K561" s="8">
-        <v>1787001</v>
+        <v>1787005</v>
       </c>
       <c r="L561" s="8">
-        <v>1939702</v>
+        <v>1939710</v>
       </c>
       <c r="M561" s="8">
-        <v>1156337</v>
+        <v>1156340</v>
       </c>
       <c r="N561" s="8">
         <v>257924</v>
       </c>
       <c r="O561" s="8">
-        <v>415264</v>
+        <v>415269</v>
       </c>
       <c r="P561" s="8">
         <v>5750074</v>
@@ -79377,19 +79533,19 @@
         <v>5389590</v>
       </c>
       <c r="K562" s="8">
-        <v>1742907</v>
+        <v>1742668</v>
       </c>
       <c r="L562" s="8">
-        <v>2055005</v>
+        <v>2054736</v>
       </c>
       <c r="M562" s="8">
-        <v>909567</v>
+        <v>909431</v>
       </c>
       <c r="N562" s="8">
-        <v>258151</v>
+        <v>258116</v>
       </c>
       <c r="O562" s="8">
-        <v>385591</v>
+        <v>385538</v>
       </c>
       <c r="P562" s="8">
         <v>5534493</v>
@@ -79433,19 +79589,19 @@
         <v>5527182</v>
       </c>
       <c r="K563" s="8">
-        <v>1514911</v>
+        <v>1514826</v>
       </c>
       <c r="L563" s="8">
-        <v>1776884</v>
+        <v>1776802</v>
       </c>
       <c r="M563" s="8">
-        <v>1027083</v>
+        <v>1027028</v>
       </c>
       <c r="N563" s="8">
-        <v>345147</v>
+        <v>345132</v>
       </c>
       <c r="O563" s="8">
-        <v>386976</v>
+        <v>386957</v>
       </c>
       <c r="P563" s="8">
         <v>5211259</v>
@@ -79489,19 +79645,19 @@
         <v>5373271</v>
       </c>
       <c r="K564" s="8">
-        <v>1611566</v>
+        <v>1611627</v>
       </c>
       <c r="L564" s="8">
-        <v>1872826</v>
+        <v>1872840</v>
       </c>
       <c r="M564" s="8">
-        <v>791636</v>
+        <v>791705</v>
       </c>
       <c r="N564" s="8">
-        <v>313489</v>
+        <v>313490</v>
       </c>
       <c r="O564" s="8">
-        <v>554206</v>
+        <v>554200</v>
       </c>
       <c r="P564" s="8">
         <v>5348247</v>
@@ -79545,19 +79701,19 @@
         <v>5778140</v>
       </c>
       <c r="K565" s="8">
-        <v>1588044</v>
+        <v>1588000</v>
       </c>
       <c r="L565" s="8">
-        <v>1868526</v>
+        <v>1868491</v>
       </c>
       <c r="M565" s="8">
-        <v>1042770</v>
+        <v>1042733</v>
       </c>
       <c r="N565" s="8">
-        <v>308383</v>
+        <v>308375</v>
       </c>
       <c r="O565" s="8">
-        <v>383582</v>
+        <v>383571</v>
       </c>
       <c r="P565" s="8">
         <v>5620349</v>
@@ -79601,19 +79757,19 @@
         <v>5992524</v>
       </c>
       <c r="K566" s="8">
-        <v>1350448</v>
+        <v>1350554</v>
       </c>
       <c r="L566" s="8">
-        <v>1770979</v>
+        <v>1771102</v>
       </c>
       <c r="M566" s="8">
-        <v>1313029</v>
+        <v>1313113</v>
       </c>
       <c r="N566" s="8">
-        <v>315204</v>
+        <v>315227</v>
       </c>
       <c r="O566" s="8">
-        <v>398851</v>
+        <v>398876</v>
       </c>
       <c r="P566" s="8">
         <v>5345036</v>
@@ -79657,19 +79813,19 @@
         <v>5703520</v>
       </c>
       <c r="K567" s="8">
-        <v>1749353</v>
+        <v>1749443</v>
       </c>
       <c r="L567" s="8">
-        <v>1946549</v>
+        <v>1946631</v>
       </c>
       <c r="M567" s="8">
-        <v>861787</v>
+        <v>861841</v>
       </c>
       <c r="N567" s="8">
-        <v>312960</v>
+        <v>312972</v>
       </c>
       <c r="O567" s="8">
-        <v>371820</v>
+        <v>371835</v>
       </c>
       <c r="P567" s="8">
         <v>5429262</v>
@@ -79713,19 +79869,19 @@
         <v>5345997</v>
       </c>
       <c r="K568" s="8">
-        <v>1445991</v>
+        <v>1446096</v>
       </c>
       <c r="L568" s="8">
-        <v>2647092</v>
+        <v>2647300</v>
       </c>
       <c r="M568" s="8">
-        <v>840640</v>
+        <v>840697</v>
       </c>
       <c r="N568" s="8">
-        <v>261114</v>
+        <v>261133</v>
       </c>
       <c r="O568" s="8">
-        <v>406881</v>
+        <v>406913</v>
       </c>
       <c r="P568" s="8">
         <v>5944163</v>
@@ -79769,19 +79925,19 @@
         <v>4222032</v>
       </c>
       <c r="K569" s="8">
-        <v>1588771</v>
+        <v>1588815</v>
       </c>
       <c r="L569" s="8">
-        <v>1837441</v>
+        <v>1837524</v>
       </c>
       <c r="M569" s="8">
-        <v>911895</v>
+        <v>911904</v>
       </c>
       <c r="N569" s="8">
-        <v>267663</v>
+        <v>267674</v>
       </c>
       <c r="O569" s="8">
-        <v>373530</v>
+        <v>373549</v>
       </c>
       <c r="P569" s="8">
         <v>5260075</v>
@@ -79825,19 +79981,19 @@
         <v>6057233</v>
       </c>
       <c r="K570" s="8">
-        <v>1812515</v>
+        <v>1812585</v>
       </c>
       <c r="L570" s="8">
-        <v>2487319</v>
+        <v>2487384</v>
       </c>
       <c r="M570" s="8">
-        <v>940608</v>
+        <v>940663</v>
       </c>
       <c r="N570" s="8">
-        <v>312046</v>
+        <v>312056</v>
       </c>
       <c r="O570" s="8">
-        <v>411129</v>
+        <v>411141</v>
       </c>
       <c r="P570" s="8">
         <v>6173962</v>
@@ -79881,19 +80037,19 @@
         <v>5857334</v>
       </c>
       <c r="K571" s="8">
-        <v>1830848</v>
+        <v>1830942</v>
       </c>
       <c r="L571" s="8">
-        <v>1957509</v>
+        <v>1957669</v>
       </c>
       <c r="M571" s="8">
-        <v>826280</v>
+        <v>826371</v>
       </c>
       <c r="N571" s="8">
-        <v>246266</v>
+        <v>246279</v>
       </c>
       <c r="O571" s="8">
-        <v>386475</v>
+        <v>386496</v>
       </c>
       <c r="P571" s="8">
         <v>5426704</v>
@@ -79937,19 +80093,19 @@
         <v>5661787</v>
       </c>
       <c r="K572" s="8">
-        <v>1512278</v>
+        <v>1512029</v>
       </c>
       <c r="L572" s="8">
-        <v>2194366</v>
+        <v>2194103</v>
       </c>
       <c r="M572" s="8">
-        <v>908516</v>
+        <v>908334</v>
       </c>
       <c r="N572" s="8">
-        <v>294249</v>
+        <v>294208</v>
       </c>
       <c r="O572" s="8">
-        <v>409945</v>
+        <v>409890</v>
       </c>
       <c r="P572" s="8">
         <v>5675841</v>
@@ -79993,19 +80149,19 @@
         <v>5178470</v>
       </c>
       <c r="K573" s="8">
-        <v>1422421</v>
+        <v>1422181</v>
       </c>
       <c r="L573" s="8">
-        <v>1958580</v>
+        <v>1958288</v>
       </c>
       <c r="M573" s="8">
-        <v>829992</v>
+        <v>829839</v>
       </c>
       <c r="N573" s="8">
-        <v>271644</v>
+        <v>271602</v>
       </c>
       <c r="O573" s="8">
-        <v>387579</v>
+        <v>387524</v>
       </c>
       <c r="P573" s="8">
         <v>5053210</v>
@@ -80049,19 +80205,19 @@
         <v>5157318</v>
       </c>
       <c r="K574" s="8">
-        <v>1355350</v>
+        <v>1355481</v>
       </c>
       <c r="L574" s="8">
-        <v>2040148</v>
+        <v>2040315</v>
       </c>
       <c r="M574" s="8">
-        <v>866306</v>
+        <v>866395</v>
       </c>
       <c r="N574" s="8">
-        <v>282634</v>
+        <v>282657</v>
       </c>
       <c r="O574" s="8">
-        <v>385786</v>
+        <v>385819</v>
       </c>
       <c r="P574" s="8">
         <v>5166978</v>
@@ -80078,16 +80234,16 @@
         <v>44013</v>
       </c>
       <c r="B575" s="8">
-        <v>1913071</v>
+        <v>1913838</v>
       </c>
       <c r="C575" s="8">
-        <v>2114767</v>
+        <v>2209117</v>
       </c>
       <c r="D575" s="8">
-        <v>1025582</v>
+        <v>1027066</v>
       </c>
       <c r="E575" s="8">
-        <v>263294</v>
+        <v>263141</v>
       </c>
       <c r="F575" s="8">
         <v>390733</v>
@@ -80102,25 +80258,25 @@
         <v>193648</v>
       </c>
       <c r="J575" s="8">
-        <v>6035608</v>
+        <v>6132056</v>
       </c>
       <c r="K575" s="8">
-        <v>1728759</v>
+        <v>1727895</v>
       </c>
       <c r="L575" s="8">
-        <v>2074798</v>
+        <v>2165410</v>
       </c>
       <c r="M575" s="8">
-        <v>888172</v>
+        <v>888675</v>
       </c>
       <c r="N575" s="8">
-        <v>262395</v>
+        <v>262007</v>
       </c>
       <c r="O575" s="8">
-        <v>366630</v>
+        <v>366303</v>
       </c>
       <c r="P575" s="8">
-        <v>5595263</v>
+        <v>5684958</v>
       </c>
       <c r="Q575" s="8"/>
       <c r="R575" s="8"/>
@@ -80134,13 +80290,13 @@
         <v>44044</v>
       </c>
       <c r="B576" s="8">
-        <v>1424161</v>
+        <v>1426040</v>
       </c>
       <c r="C576" s="8">
         <v>2168847</v>
       </c>
       <c r="D576" s="8">
-        <v>1056332</v>
+        <v>1058165</v>
       </c>
       <c r="E576" s="8">
         <v>279827</v>
@@ -80158,25 +80314,25 @@
         <v>130945</v>
       </c>
       <c r="J576" s="8">
-        <v>5584007</v>
+        <v>5587719</v>
       </c>
       <c r="K576" s="8">
-        <v>1541318</v>
+        <v>1543241</v>
       </c>
       <c r="L576" s="8">
-        <v>2261916</v>
+        <v>2261740</v>
       </c>
       <c r="M576" s="8">
-        <v>1012699</v>
+        <v>1014356</v>
       </c>
       <c r="N576" s="8">
-        <v>283375</v>
+        <v>283352</v>
       </c>
       <c r="O576" s="8">
-        <v>428665</v>
+        <v>428631</v>
       </c>
       <c r="P576" s="8">
-        <v>5774362</v>
+        <v>5778208</v>
       </c>
       <c r="Q576" s="8"/>
       <c r="R576" s="8"/>
@@ -80190,10 +80346,10 @@
         <v>44075</v>
       </c>
       <c r="B577" s="8">
-        <v>1618173</v>
+        <v>1618905</v>
       </c>
       <c r="C577" s="8">
-        <v>2315027</v>
+        <v>2315427</v>
       </c>
       <c r="D577" s="8">
         <v>1265034</v>
@@ -80214,25 +80370,25 @@
         <v>95376</v>
       </c>
       <c r="J577" s="8">
-        <v>6290325</v>
+        <v>6291457</v>
       </c>
       <c r="K577" s="8">
-        <v>1604578</v>
+        <v>1605299</v>
       </c>
       <c r="L577" s="8">
-        <v>2156392</v>
+        <v>2156668</v>
       </c>
       <c r="M577" s="8">
-        <v>1142108</v>
+        <v>1142033</v>
       </c>
       <c r="N577" s="8">
-        <v>287071</v>
+        <v>287056</v>
       </c>
       <c r="O577" s="8">
-        <v>526413</v>
+        <v>526394</v>
       </c>
       <c r="P577" s="8">
-        <v>5943507</v>
+        <v>5944580</v>
       </c>
       <c r="Q577" s="8"/>
       <c r="R577" s="8"/>
@@ -80246,10 +80402,10 @@
         <v>44105</v>
       </c>
       <c r="B578" s="8">
-        <v>2079877</v>
+        <v>2081806</v>
       </c>
       <c r="C578" s="8">
-        <v>2310162</v>
+        <v>2304029</v>
       </c>
       <c r="D578" s="8">
         <v>1286385</v>
@@ -80270,25 +80426,25 @@
         <v>121956</v>
       </c>
       <c r="J578" s="8">
-        <v>7036250</v>
+        <v>7032047</v>
       </c>
       <c r="K578" s="8">
-        <v>1874984</v>
+        <v>1876936</v>
       </c>
       <c r="L578" s="8">
-        <v>2037205</v>
+        <v>2031707</v>
       </c>
       <c r="M578" s="8">
-        <v>1204823</v>
+        <v>1204987</v>
       </c>
       <c r="N578" s="8">
-        <v>277307</v>
+        <v>277342</v>
       </c>
       <c r="O578" s="8">
-        <v>768630</v>
+        <v>768687</v>
       </c>
       <c r="P578" s="8">
-        <v>6428988</v>
+        <v>6424890</v>
       </c>
       <c r="Q578" s="8"/>
       <c r="R578" s="8"/>
@@ -80302,7 +80458,7 @@
         <v>44136</v>
       </c>
       <c r="B579" s="8">
-        <v>2315372</v>
+        <v>2315962</v>
       </c>
       <c r="C579" s="8">
         <v>2104864</v>
@@ -80311,7 +80467,7 @@
         <v>1240965</v>
       </c>
       <c r="E579" s="8">
-        <v>382654</v>
+        <v>382204</v>
       </c>
       <c r="F579" s="8">
         <v>708674</v>
@@ -80326,25 +80482,25 @@
         <v>163877</v>
       </c>
       <c r="J579" s="8">
-        <v>7066432</v>
+        <v>7066572</v>
       </c>
       <c r="K579" s="8">
-        <v>2090117</v>
+        <v>2090809</v>
       </c>
       <c r="L579" s="8">
-        <v>2026692</v>
+        <v>2026865</v>
       </c>
       <c r="M579" s="8">
-        <v>1236434</v>
+        <v>1236525</v>
       </c>
       <c r="N579" s="8">
-        <v>357657</v>
+        <v>357260</v>
       </c>
       <c r="O579" s="8">
-        <v>740845</v>
+        <v>740918</v>
       </c>
       <c r="P579" s="8">
-        <v>6759043</v>
+        <v>6759176</v>
       </c>
       <c r="Q579" s="8"/>
       <c r="R579" s="8"/>
@@ -80358,16 +80514,16 @@
         <v>44166</v>
       </c>
       <c r="B580" s="8">
-        <v>1858040</v>
+        <v>1861043</v>
       </c>
       <c r="C580" s="8">
-        <v>1832495</v>
+        <v>1870495</v>
       </c>
       <c r="D580" s="8">
         <v>1401940</v>
       </c>
       <c r="E580" s="8">
-        <v>384324</v>
+        <v>382999</v>
       </c>
       <c r="F580" s="8">
         <v>745203</v>
@@ -80382,25 +80538,25 @@
         <v>144113</v>
       </c>
       <c r="J580" s="8">
-        <v>6535370</v>
+        <v>6575048</v>
       </c>
       <c r="K580" s="8">
-        <v>2085438</v>
+        <v>2089708</v>
       </c>
       <c r="L580" s="8">
-        <v>1887223</v>
+        <v>1926984</v>
       </c>
       <c r="M580" s="8">
-        <v>1587421</v>
+        <v>1588100</v>
       </c>
       <c r="N580" s="8">
-        <v>405720</v>
+        <v>404500</v>
       </c>
       <c r="O580" s="8">
-        <v>755278</v>
+        <v>755599</v>
       </c>
       <c r="P580" s="8">
-        <v>7044110</v>
+        <v>7086742</v>
       </c>
       <c r="Q580" s="8"/>
       <c r="R580" s="8"/>
@@ -80414,7 +80570,7 @@
         <v>44197</v>
       </c>
       <c r="B581" s="8">
-        <v>1422783</v>
+        <v>1423431</v>
       </c>
       <c r="C581" s="8">
         <v>1390861</v>
@@ -80423,7 +80579,7 @@
         <v>944042</v>
       </c>
       <c r="E581" s="8">
-        <v>319298</v>
+        <v>319048</v>
       </c>
       <c r="F581" s="8">
         <v>604493</v>
@@ -80438,25 +80594,25 @@
         <v>101155</v>
       </c>
       <c r="J581" s="8">
-        <v>4894826</v>
+        <v>4895224</v>
       </c>
       <c r="K581" s="8">
-        <v>1796860</v>
+        <v>1797521</v>
       </c>
       <c r="L581" s="8">
-        <v>1926885</v>
+        <v>1926772</v>
       </c>
       <c r="M581" s="8">
-        <v>1255402</v>
+        <v>1255257</v>
       </c>
       <c r="N581" s="8">
-        <v>431181</v>
+        <v>430838</v>
       </c>
       <c r="O581" s="8">
-        <v>754821</v>
+        <v>754809</v>
       </c>
       <c r="P581" s="8">
-        <v>6470656</v>
+        <v>6471059</v>
       </c>
       <c r="Q581" s="8"/>
       <c r="R581" s="8"/>
@@ -80470,16 +80626,16 @@
         <v>44228</v>
       </c>
       <c r="B582" s="8">
-        <v>1980776</v>
+        <v>1982584</v>
       </c>
       <c r="C582" s="8">
         <v>2296095</v>
       </c>
       <c r="D582" s="8">
-        <v>1500520</v>
+        <v>1501120</v>
       </c>
       <c r="E582" s="8">
-        <v>422622</v>
+        <v>421872</v>
       </c>
       <c r="F582" s="8">
         <v>972236</v>
@@ -80494,25 +80650,25 @@
         <v>139416</v>
       </c>
       <c r="J582" s="8">
-        <v>7483979</v>
+        <v>7485637</v>
       </c>
       <c r="K582" s="8">
-        <v>2046604</v>
+        <v>2048584</v>
       </c>
       <c r="L582" s="8">
-        <v>2168177</v>
+        <v>2168285</v>
       </c>
       <c r="M582" s="8">
-        <v>1640959</v>
+        <v>1641713</v>
       </c>
       <c r="N582" s="8">
-        <v>456891</v>
+        <v>456097</v>
       </c>
       <c r="O582" s="8">
-        <v>1040780</v>
+        <v>1040841</v>
       </c>
       <c r="P582" s="8">
-        <v>7722907</v>
+        <v>7724637</v>
       </c>
       <c r="Q582" s="8"/>
       <c r="R582" s="8"/>
@@ -80526,7 +80682,7 @@
         <v>44256</v>
       </c>
       <c r="B583" s="8">
-        <v>2686013</v>
+        <v>2686689</v>
       </c>
       <c r="C583" s="8">
         <v>3103901</v>
@@ -80535,7 +80691,7 @@
         <v>1962576</v>
       </c>
       <c r="E583" s="8">
-        <v>464216</v>
+        <v>462956</v>
       </c>
       <c r="F583" s="8">
         <v>871262</v>
@@ -80550,25 +80706,25 @@
         <v>294801</v>
       </c>
       <c r="J583" s="8">
-        <v>9649799</v>
+        <v>9649215</v>
       </c>
       <c r="K583" s="8">
-        <v>2432047</v>
+        <v>2432613</v>
       </c>
       <c r="L583" s="8">
-        <v>2860480</v>
+        <v>2860427</v>
       </c>
       <c r="M583" s="8">
-        <v>1721563</v>
+        <v>1721555</v>
       </c>
       <c r="N583" s="8">
-        <v>434399</v>
+        <v>433209</v>
       </c>
       <c r="O583" s="8">
-        <v>813288</v>
+        <v>813248</v>
       </c>
       <c r="P583" s="8">
-        <v>8686495</v>
+        <v>8685960</v>
       </c>
       <c r="Q583" s="8"/>
       <c r="R583" s="8"/>
@@ -80582,22 +80738,22 @@
         <v>44287</v>
       </c>
       <c r="B584" s="8">
-        <v>2672627</v>
+        <v>2672355</v>
       </c>
       <c r="C584" s="8">
         <v>2403135</v>
       </c>
       <c r="D584" s="8">
-        <v>1623722</v>
+        <v>1625857</v>
       </c>
       <c r="E584" s="8">
-        <v>348304</v>
+        <v>346904</v>
       </c>
       <c r="F584" s="8">
         <v>952283</v>
       </c>
       <c r="G584" s="8">
-        <v>140843</v>
+        <v>141293</v>
       </c>
       <c r="H584" s="8">
         <v>30929</v>
@@ -80606,25 +80762,25 @@
         <v>102733</v>
       </c>
       <c r="J584" s="8">
-        <v>8274577</v>
+        <v>8275489</v>
       </c>
       <c r="K584" s="8">
-        <v>2650592</v>
+        <v>2650128</v>
       </c>
       <c r="L584" s="8">
-        <v>2560101</v>
+        <v>2559909</v>
       </c>
       <c r="M584" s="8">
-        <v>1759129</v>
+        <v>1761261</v>
       </c>
       <c r="N584" s="8">
-        <v>372487</v>
+        <v>370916</v>
       </c>
       <c r="O584" s="8">
-        <v>989188</v>
+        <v>989116</v>
       </c>
       <c r="P584" s="8">
-        <v>8600949</v>
+        <v>8601874</v>
       </c>
       <c r="Q584" s="8"/>
       <c r="R584" s="8"/>
@@ -80638,16 +80794,16 @@
         <v>44317</v>
       </c>
       <c r="B585" s="8">
-        <v>2646062</v>
+        <v>2645523</v>
       </c>
       <c r="C585" s="8">
-        <v>2375965</v>
+        <v>2377297</v>
       </c>
       <c r="D585" s="8">
-        <v>1397013</v>
+        <v>1397613</v>
       </c>
       <c r="E585" s="8">
-        <v>448079</v>
+        <v>447479</v>
       </c>
       <c r="F585" s="8">
         <v>1032763</v>
@@ -80662,25 +80818,25 @@
         <v>90864</v>
       </c>
       <c r="J585" s="8">
-        <v>8158889</v>
+        <v>8159683</v>
       </c>
       <c r="K585" s="8">
-        <v>2575226</v>
+        <v>2574641</v>
       </c>
       <c r="L585" s="8">
-        <v>2361809</v>
+        <v>2363097</v>
       </c>
       <c r="M585" s="8">
-        <v>1473511</v>
+        <v>1474107</v>
       </c>
       <c r="N585" s="8">
-        <v>407822</v>
+        <v>407267</v>
       </c>
       <c r="O585" s="8">
-        <v>938074</v>
+        <v>938046</v>
       </c>
       <c r="P585" s="8">
-        <v>8055411</v>
+        <v>8056191</v>
       </c>
       <c r="Q585" s="8"/>
       <c r="R585" s="8"/>
@@ -80694,16 +80850,16 @@
         <v>44348</v>
       </c>
       <c r="B586" s="8">
-        <v>2369717</v>
+        <v>2371788</v>
       </c>
       <c r="C586" s="8">
         <v>2704078</v>
       </c>
       <c r="D586" s="8">
-        <v>1494895</v>
+        <v>1496700</v>
       </c>
       <c r="E586" s="8">
-        <v>451203</v>
+        <v>450944</v>
       </c>
       <c r="F586" s="8">
         <v>671876</v>
@@ -80718,25 +80874,25 @@
         <v>108246</v>
       </c>
       <c r="J586" s="8">
-        <v>7985223</v>
+        <v>7988841</v>
       </c>
       <c r="K586" s="8">
-        <v>2551708</v>
+        <v>2553766</v>
       </c>
       <c r="L586" s="8">
-        <v>2720469</v>
+        <v>2720174</v>
       </c>
       <c r="M586" s="8">
-        <v>1359662</v>
+        <v>1361150</v>
       </c>
       <c r="N586" s="8">
-        <v>407759</v>
+        <v>407420</v>
       </c>
       <c r="O586" s="8">
-        <v>634672</v>
+        <v>634624</v>
       </c>
       <c r="P586" s="8">
-        <v>7949738</v>
+        <v>7953384</v>
       </c>
       <c r="Q586" s="8"/>
       <c r="R586" s="8"/>
@@ -80750,13 +80906,13 @@
         <v>44378</v>
       </c>
       <c r="B587" s="8">
-        <v>2330838</v>
+        <v>2350186</v>
       </c>
       <c r="C587" s="8">
-        <v>2657114</v>
+        <v>2655958</v>
       </c>
       <c r="D587" s="8">
-        <v>1587789</v>
+        <v>1589785</v>
       </c>
       <c r="E587" s="8">
         <v>370780</v>
@@ -80774,25 +80930,25 @@
         <v>69576</v>
       </c>
       <c r="J587" s="8">
-        <v>7809127</v>
+        <v>7829315</v>
       </c>
       <c r="K587" s="8">
-        <v>2132001</v>
+        <v>2150094</v>
       </c>
       <c r="L587" s="8">
-        <v>2675365</v>
+        <v>2674712</v>
       </c>
       <c r="M587" s="8">
-        <v>1463276</v>
+        <v>1465436</v>
       </c>
       <c r="N587" s="8">
-        <v>368125</v>
+        <v>368196</v>
       </c>
       <c r="O587" s="8">
-        <v>613427</v>
+        <v>613533</v>
       </c>
       <c r="P587" s="8">
-        <v>7459747</v>
+        <v>7479031</v>
       </c>
       <c r="Q587" s="8"/>
       <c r="R587" s="8"/>
@@ -80806,16 +80962,16 @@
         <v>44409</v>
       </c>
       <c r="B588" s="8">
-        <v>2183865</v>
+        <v>2187510</v>
       </c>
       <c r="C588" s="8">
-        <v>2894592</v>
+        <v>2894437</v>
       </c>
       <c r="D588" s="8">
-        <v>1644841</v>
+        <v>1649626</v>
       </c>
       <c r="E588" s="8">
-        <v>416670</v>
+        <v>416030</v>
       </c>
       <c r="F588" s="8">
         <v>740698</v>
@@ -80830,25 +80986,25 @@
         <v>136912</v>
       </c>
       <c r="J588" s="8">
-        <v>8140231</v>
+        <v>8147867</v>
       </c>
       <c r="K588" s="8">
-        <v>2289196</v>
+        <v>2293155</v>
       </c>
       <c r="L588" s="8">
-        <v>3001580</v>
+        <v>3001425</v>
       </c>
       <c r="M588" s="8">
-        <v>1526240</v>
+        <v>1530685</v>
       </c>
       <c r="N588" s="8">
-        <v>418025</v>
+        <v>417381</v>
       </c>
       <c r="O588" s="8">
-        <v>740746</v>
+        <v>740743</v>
       </c>
       <c r="P588" s="8">
-        <v>8236801</v>
+        <v>8244585</v>
       </c>
       <c r="Q588" s="8"/>
       <c r="R588" s="8"/>
@@ -80862,19 +81018,19 @@
         <v>44440</v>
       </c>
       <c r="B589" s="8">
-        <v>2710082</v>
+        <v>2808831</v>
       </c>
       <c r="C589" s="8">
-        <v>2405510</v>
+        <v>2410510</v>
       </c>
       <c r="D589" s="8">
-        <v>1466104</v>
+        <v>1468120</v>
       </c>
       <c r="E589" s="8">
-        <v>363096</v>
+        <v>363424</v>
       </c>
       <c r="F589" s="8">
-        <v>605622</v>
+        <v>609710</v>
       </c>
       <c r="G589" s="8">
         <v>93496</v>
@@ -80886,25 +81042,25 @@
         <v>281615</v>
       </c>
       <c r="J589" s="8">
-        <v>7952188</v>
+        <v>8062369</v>
       </c>
       <c r="K589" s="8">
-        <v>2636164</v>
+        <v>2732061</v>
       </c>
       <c r="L589" s="8">
-        <v>2124232</v>
+        <v>2127292</v>
       </c>
       <c r="M589" s="8">
-        <v>1301860</v>
+        <v>1302876</v>
       </c>
       <c r="N589" s="8">
-        <v>348800</v>
+        <v>348910</v>
       </c>
       <c r="O589" s="8">
-        <v>585474</v>
+        <v>589052</v>
       </c>
       <c r="P589" s="8">
-        <v>7404272</v>
+        <v>7507149</v>
       </c>
       <c r="Q589" s="8"/>
       <c r="R589" s="8"/>
@@ -80918,22 +81074,22 @@
         <v>44470</v>
       </c>
       <c r="B590" s="8">
-        <v>2159948</v>
+        <v>2178159</v>
       </c>
       <c r="C590" s="8">
-        <v>2394798</v>
+        <v>2395153</v>
       </c>
       <c r="D590" s="8">
-        <v>1347264</v>
+        <v>1357139</v>
       </c>
       <c r="E590" s="8">
-        <v>313953</v>
+        <v>313203</v>
       </c>
       <c r="F590" s="8">
-        <v>534628</v>
+        <v>540822</v>
       </c>
       <c r="G590" s="8">
-        <v>78946</v>
+        <v>79296</v>
       </c>
       <c r="H590" s="8">
         <v>14335</v>
@@ -80942,25 +81098,25 @@
         <v>126353</v>
       </c>
       <c r="J590" s="8">
-        <v>6970227</v>
+        <v>7004460</v>
       </c>
       <c r="K590" s="8">
-        <v>2034177</v>
+        <v>2050671</v>
       </c>
       <c r="L590" s="8">
-        <v>2175715</v>
+        <v>2175683</v>
       </c>
       <c r="M590" s="8">
-        <v>1266373</v>
+        <v>1275439</v>
       </c>
       <c r="N590" s="8">
-        <v>306306</v>
+        <v>305526</v>
       </c>
       <c r="O590" s="8">
-        <v>518548</v>
+        <v>524437</v>
       </c>
       <c r="P590" s="8">
-        <v>6539694</v>
+        <v>6571619</v>
       </c>
       <c r="Q590" s="8"/>
       <c r="R590" s="8"/>
@@ -80974,22 +81130,22 @@
         <v>44501</v>
       </c>
       <c r="B591" s="8">
-        <v>1959905</v>
+        <v>1962895</v>
       </c>
       <c r="C591" s="8">
-        <v>2574024</v>
+        <v>2590321</v>
       </c>
       <c r="D591" s="8">
-        <v>1481585</v>
+        <v>1471721</v>
       </c>
       <c r="E591" s="8">
-        <v>401859</v>
+        <v>401009</v>
       </c>
       <c r="F591" s="8">
-        <v>594026</v>
+        <v>608744</v>
       </c>
       <c r="G591" s="8">
-        <v>118060</v>
+        <v>118890</v>
       </c>
       <c r="H591" s="8">
         <v>37826</v>
@@ -80998,25 +81154,25 @@
         <v>166688</v>
       </c>
       <c r="J591" s="8">
-        <v>7333973</v>
+        <v>7358096</v>
       </c>
       <c r="K591" s="8">
-        <v>1733117</v>
+        <v>1735664</v>
       </c>
       <c r="L591" s="8">
-        <v>2521514</v>
+        <v>2537637</v>
       </c>
       <c r="M591" s="8">
-        <v>1447923</v>
+        <v>1438223</v>
       </c>
       <c r="N591" s="8">
-        <v>354192</v>
+        <v>353461</v>
       </c>
       <c r="O591" s="8">
-        <v>602096</v>
+        <v>617328</v>
       </c>
       <c r="P591" s="8">
-        <v>6947854</v>
+        <v>6970599</v>
       </c>
       <c r="Q591" s="8"/>
       <c r="R591" s="8"/>
@@ -81030,22 +81186,22 @@
         <v>44531</v>
       </c>
       <c r="B592" s="8">
-        <v>2094827</v>
+        <v>2093269</v>
       </c>
       <c r="C592" s="8">
-        <v>2536844</v>
+        <v>2539539</v>
       </c>
       <c r="D592" s="8">
-        <v>1199731</v>
+        <v>1188229</v>
       </c>
       <c r="E592" s="8">
-        <v>372474</v>
+        <v>372164</v>
       </c>
       <c r="F592" s="8">
-        <v>505122</v>
+        <v>508330</v>
       </c>
       <c r="G592" s="8">
-        <v>101769</v>
+        <v>107769</v>
       </c>
       <c r="H592" s="8">
         <v>16678</v>
@@ -81054,25 +81210,25 @@
         <v>293634</v>
       </c>
       <c r="J592" s="8">
-        <v>7121078</v>
+        <v>7119611</v>
       </c>
       <c r="K592" s="8">
-        <v>2228719</v>
+        <v>2227142</v>
       </c>
       <c r="L592" s="8">
-        <v>2669279</v>
+        <v>2672536</v>
       </c>
       <c r="M592" s="8">
-        <v>1345187</v>
+        <v>1333288</v>
       </c>
       <c r="N592" s="8">
-        <v>410179</v>
+        <v>409888</v>
       </c>
       <c r="O592" s="8">
-        <v>513128</v>
+        <v>516490</v>
       </c>
       <c r="P592" s="8">
-        <v>7608789</v>
+        <v>7607809</v>
       </c>
       <c r="Q592" s="8"/>
       <c r="R592" s="8"/>
@@ -81086,19 +81242,19 @@
         <v>44562</v>
       </c>
       <c r="B593" s="8">
-        <v>1345922</v>
+        <v>1344409</v>
       </c>
       <c r="C593" s="8">
-        <v>1368258</v>
+        <v>1437176</v>
       </c>
       <c r="D593" s="8">
-        <v>964946</v>
+        <v>1025278</v>
       </c>
       <c r="E593" s="8">
-        <v>230130</v>
+        <v>228970</v>
       </c>
       <c r="F593" s="8">
-        <v>348011</v>
+        <v>358390</v>
       </c>
       <c r="G593" s="8">
         <v>72813</v>
@@ -81110,25 +81266,25 @@
         <v>36188</v>
       </c>
       <c r="J593" s="8">
-        <v>4378655</v>
+        <v>4515611</v>
       </c>
       <c r="K593" s="8">
-        <v>1750880</v>
+        <v>1748046</v>
       </c>
       <c r="L593" s="8">
-        <v>1902238</v>
+        <v>1995644</v>
       </c>
       <c r="M593" s="8">
-        <v>1302997</v>
+        <v>1384286</v>
       </c>
       <c r="N593" s="8">
-        <v>313666</v>
+        <v>311895</v>
       </c>
       <c r="O593" s="8">
-        <v>456340</v>
+        <v>469769</v>
       </c>
       <c r="P593" s="8">
-        <v>5899813</v>
+        <v>6082698</v>
       </c>
       <c r="Q593" s="8"/>
       <c r="R593" s="8"/>
@@ -81142,49 +81298,49 @@
         <v>44593</v>
       </c>
       <c r="B594" s="8">
-        <v>2319640</v>
+        <v>2313274</v>
       </c>
       <c r="C594" s="8">
-        <v>3176829</v>
+        <v>3184139</v>
       </c>
       <c r="D594" s="8">
-        <v>1192148</v>
+        <v>1291033</v>
       </c>
       <c r="E594" s="8">
-        <v>433882</v>
+        <v>434898</v>
       </c>
       <c r="F594" s="8">
-        <v>452119</v>
+        <v>458428</v>
       </c>
       <c r="G594" s="8">
-        <v>107677</v>
+        <v>110572</v>
       </c>
       <c r="H594" s="8">
         <v>35344</v>
       </c>
       <c r="I594" s="8">
-        <v>218662</v>
+        <v>219450</v>
       </c>
       <c r="J594" s="8">
-        <v>7936300</v>
+        <v>8047139</v>
       </c>
       <c r="K594" s="8">
-        <v>2435910</v>
+        <v>2427033</v>
       </c>
       <c r="L594" s="8">
-        <v>3013438</v>
+        <v>3017573</v>
       </c>
       <c r="M594" s="8">
-        <v>1324281</v>
+        <v>1432360</v>
       </c>
       <c r="N594" s="8">
-        <v>470884</v>
+        <v>471621</v>
       </c>
       <c r="O594" s="8">
-        <v>488570</v>
+        <v>494930</v>
       </c>
       <c r="P594" s="8">
-        <v>8183474</v>
+        <v>8296948</v>
       </c>
       <c r="Q594" s="8"/>
       <c r="R594" s="8"/>
@@ -81192,6 +81348,118 @@
       <c r="T594" s="8"/>
       <c r="U594" s="8"/>
       <c r="V594" s="8"/>
+    </row>
+    <row r="595" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A595" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B595" s="8">
+        <v>2143000</v>
+      </c>
+      <c r="C595" s="8">
+        <v>2458246</v>
+      </c>
+      <c r="D595" s="8">
+        <v>1661092</v>
+      </c>
+      <c r="E595" s="8">
+        <v>369504</v>
+      </c>
+      <c r="F595" s="8">
+        <v>569607</v>
+      </c>
+      <c r="G595" s="8">
+        <v>110051</v>
+      </c>
+      <c r="H595" s="8">
+        <v>35802</v>
+      </c>
+      <c r="I595" s="8">
+        <v>273484</v>
+      </c>
+      <c r="J595" s="8">
+        <v>7620787</v>
+      </c>
+      <c r="K595" s="8">
+        <v>1919542</v>
+      </c>
+      <c r="L595" s="8">
+        <v>2121919</v>
+      </c>
+      <c r="M595" s="8">
+        <v>1546308</v>
+      </c>
+      <c r="N595" s="8">
+        <v>340866</v>
+      </c>
+      <c r="O595" s="8">
+        <v>503672</v>
+      </c>
+      <c r="P595" s="8">
+        <v>6744876</v>
+      </c>
+      <c r="Q595" s="8"/>
+      <c r="R595" s="8"/>
+      <c r="S595" s="8"/>
+      <c r="T595" s="8"/>
+      <c r="U595" s="8"/>
+      <c r="V595" s="8"/>
+    </row>
+    <row r="596" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A596" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B596" s="8">
+        <v>1852070</v>
+      </c>
+      <c r="C596" s="8">
+        <v>2329546</v>
+      </c>
+      <c r="D596" s="8">
+        <v>1214032</v>
+      </c>
+      <c r="E596" s="8">
+        <v>542198</v>
+      </c>
+      <c r="F596" s="8">
+        <v>511712</v>
+      </c>
+      <c r="G596" s="8">
+        <v>86027</v>
+      </c>
+      <c r="H596" s="8">
+        <v>14426</v>
+      </c>
+      <c r="I596" s="8">
+        <v>49862</v>
+      </c>
+      <c r="J596" s="8">
+        <v>6599873</v>
+      </c>
+      <c r="K596" s="8">
+        <v>1951569</v>
+      </c>
+      <c r="L596" s="8">
+        <v>2579637</v>
+      </c>
+      <c r="M596" s="8">
+        <v>1290777</v>
+      </c>
+      <c r="N596" s="8">
+        <v>549739</v>
+      </c>
+      <c r="O596" s="8">
+        <v>531435</v>
+      </c>
+      <c r="P596" s="8">
+        <v>7060069</v>
+      </c>
+      <c r="Q596" s="8"/>
+      <c r="R596" s="8"/>
+      <c r="S596" s="8"/>
+      <c r="T596" s="8"/>
+      <c r="U596" s="8"/>
+      <c r="V596" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
